--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>RFL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,46 +748,49 @@
         <v>1200</v>
       </c>
       <c r="E8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="F8" s="3">
         <v>1400</v>
       </c>
       <c r="G8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1400</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,32 +908,33 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>300</v>
       </c>
       <c r="G12" s="3">
         <v>300</v>
       </c>
       <c r="H12" s="3">
+        <v>300</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +1071,7 @@
         <v>500</v>
       </c>
       <c r="F15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
@@ -1075,16 +1098,19 @@
         <v>400</v>
       </c>
       <c r="O15" s="3">
+        <v>400</v>
+      </c>
+      <c r="P15" s="3">
         <v>800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>400</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1800</v>
       </c>
       <c r="K17" s="3">
         <v>1800</v>
       </c>
       <c r="L17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1400</v>
       </c>
       <c r="G18" s="3">
         <v>-1400</v>
       </c>
       <c r="H18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>200</v>
       </c>
       <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>200</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,125 +1245,132 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1341,8 +1381,8 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-700</v>
       </c>
       <c r="H23" s="3">
         <v>-700</v>
       </c>
       <c r="I23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-700</v>
       </c>
       <c r="K23" s="3">
         <v>-700</v>
       </c>
       <c r="L23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1421,20 +1467,20 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-2500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>8400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1444,11 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-700</v>
       </c>
       <c r="H26" s="3">
         <v>-700</v>
       </c>
       <c r="I26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J26" s="3">
         <v>1100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-700</v>
       </c>
       <c r="K26" s="3">
         <v>-700</v>
       </c>
       <c r="L26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M26" s="3">
         <v>-9300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1000</v>
       </c>
       <c r="G27" s="3">
         <v>-1000</v>
       </c>
       <c r="H27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
       </c>
       <c r="L27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M27" s="3">
         <v>-9300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,19 +1693,22 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1655,12 +1716,12 @@
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
         <v>-2500</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1000</v>
       </c>
       <c r="G33" s="3">
         <v>-1000</v>
       </c>
       <c r="H33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
       </c>
       <c r="L33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M33" s="3">
         <v>-9300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1000</v>
       </c>
       <c r="G35" s="3">
         <v>-1000</v>
       </c>
       <c r="H35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
       </c>
       <c r="L35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M35" s="3">
         <v>-9300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E41" s="3">
         <v>10800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2112,24 +2202,24 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>20100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>24700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>30900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,41 +2238,44 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G43" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
       </c>
       <c r="I43" s="3">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="J43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,41 +2338,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
-        <v>3700</v>
-      </c>
       <c r="I45" s="3">
-        <v>3700</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,41 +2388,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E46" s="3">
         <v>11700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>44500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>44200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,41 +2438,44 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>77100</v>
+        <v>77700</v>
       </c>
       <c r="E47" s="3">
         <v>77100</v>
       </c>
       <c r="F47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="G47" s="3">
         <v>76700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>76200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>17600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,40 +2488,43 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E48" s="3">
         <v>48600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>48700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>49200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>49400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>49700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>50100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>50600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>51000</v>
       </c>
       <c r="L48" s="3">
         <v>51000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>51000</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2442,7 +2553,7 @@
         <v>1600</v>
       </c>
       <c r="F49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G49" s="3">
         <v>1700</v>
@@ -2454,14 +2565,14 @@
         <v>1700</v>
       </c>
       <c r="J49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,10 +2700,10 @@
         <v>1500</v>
       </c>
       <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3">
         <v>1400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1200</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
@@ -2592,20 +2712,20 @@
         <v>1200</v>
       </c>
       <c r="I52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>139200</v>
+      </c>
+      <c r="E54" s="3">
         <v>140400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>142100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>143500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>144200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>116600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>116900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>115100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>77600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>76600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,31 +2890,31 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
       </c>
       <c r="G57" s="3">
+        <v>800</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>100</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2856,29 +2993,29 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,32 +3040,32 @@
         <v>1200</v>
       </c>
       <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>14900</v>
@@ -2956,7 +3099,7 @@
         <v>14900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2985,41 +3128,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
         <v>24500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3182,32 +3340,32 @@
         <v>15200</v>
       </c>
       <c r="E66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F66" s="3">
         <v>31200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>10200</v>
       </c>
       <c r="I66" s="3">
         <v>10200</v>
       </c>
       <c r="J66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K66" s="3">
         <v>9600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,35 +3598,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E76" s="3">
         <v>125200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>111000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>118000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>118800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>106400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>106700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>105400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>42900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>43400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1000</v>
       </c>
       <c r="G81" s="3">
         <v>-1000</v>
       </c>
       <c r="H81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
       </c>
       <c r="L81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M81" s="3">
         <v>-9300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3839,7 +4038,7 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -3866,16 +4065,19 @@
         <v>400</v>
       </c>
       <c r="O83" s="3">
+        <v>400</v>
+      </c>
+      <c r="P83" s="3">
         <v>800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-700</v>
       </c>
       <c r="I89" s="3">
         <v>-700</v>
       </c>
       <c r="J89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,13 +4813,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4585,40 +4831,43 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>30700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>19300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>18400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4626,23 +4875,23 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -4661,54 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9600</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>RFL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -751,46 +754,49 @@
         <v>1200</v>
       </c>
       <c r="F8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="G8" s="3">
         <v>1400</v>
       </c>
       <c r="H8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,35 +921,36 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>300</v>
       </c>
       <c r="I12" s="3">
+        <v>300</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1096,7 @@
         <v>500</v>
       </c>
       <c r="G15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
@@ -1101,16 +1123,19 @@
         <v>400</v>
       </c>
       <c r="P15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>400</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1800</v>
       </c>
       <c r="L17" s="3">
         <v>1800</v>
       </c>
       <c r="M17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1400</v>
       </c>
       <c r="H18" s="3">
         <v>-1400</v>
       </c>
       <c r="I18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>200</v>
       </c>
       <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>200</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1372,8 +1411,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1384,8 +1423,8 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1396,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-700</v>
       </c>
       <c r="I23" s="3">
         <v>-700</v>
       </c>
       <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-700</v>
       </c>
       <c r="L23" s="3">
         <v>-700</v>
       </c>
       <c r="M23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1470,20 +1515,20 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2500</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>8400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1493,11 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-700</v>
       </c>
       <c r="I26" s="3">
         <v>-700</v>
       </c>
       <c r="J26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-700</v>
       </c>
       <c r="L26" s="3">
         <v>-700</v>
       </c>
       <c r="M26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N26" s="3">
         <v>-9300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1000</v>
       </c>
       <c r="H27" s="3">
         <v>-1000</v>
       </c>
       <c r="I27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-9300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1707,11 +1767,11 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1719,12 +1779,12 @@
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2500</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1000</v>
       </c>
       <c r="H33" s="3">
         <v>-1000</v>
       </c>
       <c r="I33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-9300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1000</v>
       </c>
       <c r="H35" s="3">
         <v>-1000</v>
       </c>
       <c r="I35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-9300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2226,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E41" s="3">
         <v>9500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2205,24 +2294,24 @@
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>20100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>24700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>30900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,44 +2330,47 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2350,7 +2448,7 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
@@ -2359,26 +2457,26 @@
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,44 +2489,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E46" s="3">
         <v>10300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>44500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,44 +2542,47 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E47" s="3">
         <v>77700</v>
-      </c>
-      <c r="E47" s="3">
-        <v>77100</v>
       </c>
       <c r="F47" s="3">
         <v>77100</v>
       </c>
       <c r="G47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="H47" s="3">
         <v>76700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>76200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>29600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,43 +2595,46 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E48" s="3">
         <v>48300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>48600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>48700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>49200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>49400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>49700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>50100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>51000</v>
       </c>
       <c r="M48" s="3">
         <v>51000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>51000</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2556,7 +2666,7 @@
         <v>1600</v>
       </c>
       <c r="G49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H49" s="3">
         <v>1700</v>
@@ -2568,14 +2678,14 @@
         <v>1700</v>
       </c>
       <c r="K49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L49" s="3">
         <v>1800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2703,10 +2822,10 @@
         <v>1500</v>
       </c>
       <c r="F52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="3">
         <v>1400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1200</v>
       </c>
       <c r="H52" s="3">
         <v>1200</v>
@@ -2715,20 +2834,20 @@
         <v>1200</v>
       </c>
       <c r="J52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E54" s="3">
         <v>139200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>140400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>142100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>143500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>144200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>116600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>116900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>115100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>77600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>76600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,43 +3010,44 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
       </c>
       <c r="F57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>800</v>
       </c>
       <c r="H57" s="3">
+        <v>800</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>100</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,13 +3114,16 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
@@ -2996,29 +3132,29 @@
         <v>600</v>
       </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,44 +3167,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>1200</v>
       </c>
       <c r="F60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3093,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>14900</v>
@@ -3102,7 +3244,7 @@
         <v>14900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3140,35 +3285,35 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
         <v>24500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3485,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15200</v>
+        <v>15400</v>
       </c>
       <c r="E66" s="3">
         <v>15200</v>
       </c>
       <c r="F66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G66" s="3">
         <v>31200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>10200</v>
       </c>
       <c r="J66" s="3">
         <v>10200</v>
       </c>
       <c r="K66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="L66" s="3">
         <v>9600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3983,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E76" s="3">
         <v>124100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>125200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>111000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>118000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>118800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>106400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>106700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>105400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>43400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1000</v>
       </c>
       <c r="H81" s="3">
         <v>-1000</v>
       </c>
       <c r="I81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-9300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4041,7 +4239,7 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -4068,16 +4266,19 @@
         <v>400</v>
       </c>
       <c r="P83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-700</v>
       </c>
       <c r="K89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,17 +5058,20 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4834,40 +5079,43 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>30700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>19300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>18400</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4878,23 +5126,23 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -4913,57 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9600</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>RFL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -757,46 +761,49 @@
         <v>1200</v>
       </c>
       <c r="G8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H8" s="3">
         <v>1400</v>
       </c>
       <c r="I8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,38 +935,39 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>300</v>
       </c>
       <c r="J12" s="3">
+        <v>300</v>
+      </c>
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,17 +1045,20 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,8 +1074,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1099,7 +1122,7 @@
         <v>500</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
@@ -1126,16 +1149,19 @@
         <v>400</v>
       </c>
       <c r="Q15" s="3">
+        <v>400</v>
+      </c>
+      <c r="R15" s="3">
         <v>800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1800</v>
       </c>
       <c r="M17" s="3">
         <v>1800</v>
       </c>
       <c r="N17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1400</v>
       </c>
       <c r="I18" s="3">
         <v>-1400</v>
       </c>
       <c r="J18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>200</v>
       </c>
       <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>200</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1414,8 +1454,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1426,8 +1466,8 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-700</v>
       </c>
       <c r="J23" s="3">
         <v>-700</v>
       </c>
       <c r="K23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-700</v>
       </c>
       <c r="M23" s="3">
         <v>-700</v>
       </c>
       <c r="N23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1518,20 +1564,20 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-2500</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>8400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1541,11 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-700</v>
       </c>
       <c r="J26" s="3">
         <v>-700</v>
       </c>
       <c r="K26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L26" s="3">
         <v>1100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-700</v>
       </c>
       <c r="M26" s="3">
         <v>-700</v>
       </c>
       <c r="N26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O26" s="3">
         <v>-9300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1000</v>
       </c>
       <c r="I27" s="3">
         <v>-1000</v>
       </c>
       <c r="J27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-500</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
       </c>
       <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-9300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,13 +1814,16 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>3</v>
@@ -1770,11 +1831,11 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1782,12 +1843,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2500</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1000</v>
       </c>
       <c r="I33" s="3">
         <v>-1000</v>
       </c>
       <c r="J33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
       </c>
       <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-9300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1000</v>
       </c>
       <c r="I35" s="3">
         <v>-1000</v>
       </c>
       <c r="J35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
       </c>
       <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-9300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E41" s="3">
         <v>8400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2297,24 +2387,24 @@
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>20100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>30900</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,38 +2435,38 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,19 +2535,22 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
@@ -2460,26 +2559,26 @@
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,47 +2591,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E46" s="3">
         <v>9200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>44200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,47 +2647,50 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E47" s="3">
         <v>77400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>77700</v>
-      </c>
-      <c r="F47" s="3">
-        <v>77100</v>
       </c>
       <c r="G47" s="3">
         <v>77100</v>
       </c>
       <c r="H47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="I47" s="3">
         <v>76700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>76200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>29600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2598,46 +2703,49 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E48" s="3">
         <v>47800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>48300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>48600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>48700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>49200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>49400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>49700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>51000</v>
       </c>
       <c r="N48" s="3">
         <v>51000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>51000</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2669,7 +2780,7 @@
         <v>1600</v>
       </c>
       <c r="H49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I49" s="3">
         <v>1700</v>
@@ -2681,14 +2792,14 @@
         <v>1700</v>
       </c>
       <c r="L49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M49" s="3">
         <v>1800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,13 +2927,16 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="3">
         <v>1500</v>
@@ -2825,10 +2945,10 @@
         <v>1500</v>
       </c>
       <c r="G52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H52" s="3">
         <v>1400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
@@ -2837,20 +2957,20 @@
         <v>1200</v>
       </c>
       <c r="K52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E54" s="3">
         <v>137400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>139200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>140400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>142100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>143500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>144200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>116600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>116900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>115100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>77600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>76600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,46 +3141,47 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H57" s="3">
         <v>800</v>
       </c>
       <c r="I57" s="3">
+        <v>800</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>100</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,16 +3251,19 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
@@ -3135,29 +3272,29 @@
         <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,47 +3307,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1200</v>
       </c>
       <c r="F60" s="3">
         <v>1200</v>
       </c>
       <c r="G60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3238,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>14900</v>
@@ -3247,7 +3390,7 @@
         <v>14900</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,35 +3434,35 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
         <v>24500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E66" s="3">
         <v>15400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>15200</v>
       </c>
       <c r="F66" s="3">
         <v>15200</v>
       </c>
       <c r="G66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="H66" s="3">
         <v>31200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>10200</v>
       </c>
       <c r="K66" s="3">
         <v>10200</v>
       </c>
       <c r="L66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="M66" s="3">
         <v>9600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E76" s="3">
         <v>122100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>124100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>125200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>111000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>118000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>118800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>106400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>106700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>105400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>42900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>43400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1000</v>
       </c>
       <c r="I81" s="3">
         <v>-1000</v>
       </c>
       <c r="J81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
       </c>
       <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-9300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4242,7 +4441,7 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -4269,16 +4468,19 @@
         <v>400</v>
       </c>
       <c r="Q83" s="3">
+        <v>400</v>
+      </c>
+      <c r="R83" s="3">
         <v>800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-700</v>
       </c>
       <c r="K89" s="3">
         <v>-700</v>
       </c>
       <c r="L89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4625,52 +4846,55 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8700</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,11 +5316,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5082,40 +5328,43 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>30700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>19300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>18400</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5129,23 +5378,23 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -5164,60 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9600</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>RFL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,105 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F8" s="3">
         <v>1200</v>
@@ -764,46 +772,52 @@
         <v>1200</v>
       </c>
       <c r="H8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1200</v>
       </c>
       <c r="M8" s="3">
         <v>1100</v>
       </c>
       <c r="N8" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="O8" s="3">
         <v>1100</v>
       </c>
       <c r="P8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1400</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,44 +962,46 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>500</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,23 +1082,29 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>700</v>
+      </c>
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1077,11 +1117,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1104,16 +1144,22 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>500</v>
@@ -1125,10 +1171,10 @@
         <v>500</v>
       </c>
       <c r="I15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
@@ -1152,16 +1198,22 @@
         <v>400</v>
       </c>
       <c r="R15" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>800</v>
+      </c>
+      <c r="U15" s="3">
+        <v>400</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4200</v>
       </c>
       <c r="I17" s="3">
         <v>2800</v>
       </c>
       <c r="J17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1379,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1457,11 +1537,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1469,11 +1549,11 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1481,64 +1561,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1400</v>
       </c>
       <c r="M23" s="3">
         <v>-700</v>
       </c>
       <c r="N23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1567,34 +1659,40 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-2500</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>8400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1100</v>
       </c>
       <c r="M26" s="3">
         <v>-700</v>
       </c>
       <c r="N26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-9300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1300</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
       </c>
       <c r="N27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-9300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,44 +1933,50 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2500</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1200</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
       </c>
       <c r="N33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-9300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1200</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
       </c>
       <c r="N35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-9300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2486,55 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F41" s="3">
         <v>6200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>8400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>9500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>10800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>15800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>12000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>11500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,25 +2544,31 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2397,20 +2577,20 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>20100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>24700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>30900</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,52 +2606,58 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>400</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>400</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,53 +2730,59 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
       </c>
       <c r="J45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>400</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
+        <v>400</v>
+      </c>
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,53 +2792,59 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F46" s="3">
         <v>9800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>10300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>11700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>13300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>14600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>15700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>34400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>44500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>44200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>12400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>12000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,53 +2854,59 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>79100</v>
+      </c>
+      <c r="F47" s="3">
         <v>78900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>77400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>77700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>77100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>77100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>76700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>76200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>29600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>19500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>17600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>11700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>13000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,53 +2916,59 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F48" s="3">
         <v>44400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>47800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>48300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>48600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>48700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>49200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>49400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>49700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>50100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>50600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>51000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>51000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2783,10 +3005,10 @@
         <v>1600</v>
       </c>
       <c r="I49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K49" s="3">
         <v>1700</v>
@@ -2795,16 +3017,16 @@
         <v>1700</v>
       </c>
       <c r="M49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N49" s="3">
         <v>1700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P49" s="3">
+        <v>1700</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3164,59 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
-        <v>1500</v>
-      </c>
       <c r="F52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G52" s="3">
         <v>1500</v>
       </c>
       <c r="H52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J52" s="3">
         <v>1400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1200</v>
       </c>
       <c r="K52" s="3">
         <v>1200</v>
       </c>
       <c r="L52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3288,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>146200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>134600</v>
+      </c>
+      <c r="F54" s="3">
         <v>136300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>137400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>139200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>140400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>142100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>143500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>144200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>116600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>116900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>115100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>77600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>76600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3402,55 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3460,14 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,52 +3522,58 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>300</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
@@ -3310,53 +3584,59 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F60" s="3">
         <v>5700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>900</v>
       </c>
       <c r="M60" s="3">
         <v>700</v>
       </c>
       <c r="N60" s="3">
+        <v>900</v>
+      </c>
+      <c r="O60" s="3">
+        <v>700</v>
+      </c>
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3646,14 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3384,19 +3670,19 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>14900</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3422,53 +3708,59 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3">
         <v>24500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>23500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3956,59 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F66" s="3">
         <v>19500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>15200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>31200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>25500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>25300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>34700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>33200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,47 +4290,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4538,59 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>115600</v>
+      </c>
+      <c r="F76" s="3">
         <v>116800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>122100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>124100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>125200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>111000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>118000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>118800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>106400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>106700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>105400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>42900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>43400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1200</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
       </c>
       <c r="N81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-9300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,16 +4819,18 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -4444,10 +4842,10 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -4471,16 +4869,22 @@
         <v>400</v>
       </c>
       <c r="R83" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>800</v>
+      </c>
+      <c r="U83" s="3">
+        <v>400</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,25 +5277,27 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
@@ -4864,37 +5306,43 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L94" s="3">
         <v>-25700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>4200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-9400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-8700</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5793,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>30700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>2500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>19300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>18400</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5381,16 +5879,16 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
@@ -5399,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5416,63 +5914,75 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>9500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>9600</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>RFL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -763,10 +766,10 @@
         <v>1000</v>
       </c>
       <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1200</v>
       </c>
       <c r="G8" s="3">
         <v>1200</v>
@@ -778,46 +781,49 @@
         <v>1200</v>
       </c>
       <c r="J8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K8" s="3">
         <v>1400</v>
       </c>
       <c r="L8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1400</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,47 +976,48 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>300</v>
       </c>
       <c r="L12" s="3">
         <v>300</v>
       </c>
       <c r="M12" s="3">
+        <v>300</v>
+      </c>
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,26 +1104,29 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1142,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1150,19 +1169,22 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
@@ -1177,7 +1199,7 @@
         <v>500</v>
       </c>
       <c r="K15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L15" s="3">
         <v>400</v>
@@ -1204,16 +1226,19 @@
         <v>400</v>
       </c>
       <c r="T15" s="3">
+        <v>400</v>
+      </c>
+      <c r="U15" s="3">
         <v>800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>400</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E17" s="3">
         <v>11800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1800</v>
       </c>
       <c r="P17" s="3">
         <v>1800</v>
       </c>
       <c r="Q17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1400</v>
       </c>
       <c r="L18" s="3">
         <v>-1400</v>
       </c>
       <c r="M18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>200</v>
       </c>
       <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>200</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1543,8 +1582,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1555,8 +1594,8 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1567,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-700</v>
       </c>
       <c r="M23" s="3">
         <v>-700</v>
       </c>
       <c r="N23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-700</v>
       </c>
       <c r="P23" s="3">
         <v>-700</v>
       </c>
       <c r="Q23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1665,20 +1710,20 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-2500</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>8400</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1688,11 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-700</v>
       </c>
       <c r="M26" s="3">
         <v>-700</v>
       </c>
       <c r="N26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O26" s="3">
         <v>1100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-700</v>
       </c>
       <c r="P26" s="3">
         <v>-700</v>
       </c>
       <c r="Q26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R26" s="3">
         <v>-9300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1000</v>
       </c>
       <c r="L27" s="3">
         <v>-1000</v>
       </c>
       <c r="M27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R27" s="3">
         <v>-9300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1950,11 +2010,11 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1962,11 +2022,11 @@
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
@@ -1974,12 +2034,12 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2500</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1000</v>
       </c>
       <c r="L33" s="3">
         <v>-1000</v>
       </c>
       <c r="M33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-9300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1000</v>
       </c>
       <c r="L35" s="3">
         <v>-1000</v>
       </c>
       <c r="M35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-9300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2573,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
         <v>6100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2583,17 +2672,17 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>20100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>24700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>30900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,56 +2701,59 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
         <v>600</v>
       </c>
       <c r="F43" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
       </c>
       <c r="H43" s="3">
+        <v>400</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,28 +2831,31 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
@@ -2766,26 +2864,26 @@
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,56 +2896,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>44500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>44200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,56 +2961,59 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E47" s="3">
         <v>92700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>79100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>78900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>77400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>77700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>77100</v>
       </c>
       <c r="J47" s="3">
         <v>77100</v>
       </c>
       <c r="K47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="L47" s="3">
         <v>76700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>76200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>17600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2922,55 +3026,58 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E48" s="3">
         <v>43800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>44400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>47800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>48300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>48600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>48700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>49200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50600</v>
-      </c>
-      <c r="P48" s="3">
-        <v>51000</v>
       </c>
       <c r="Q48" s="3">
         <v>51000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="R48" s="3">
+        <v>51000</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3011,7 +3121,7 @@
         <v>1600</v>
       </c>
       <c r="K49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="L49" s="3">
         <v>1700</v>
@@ -3023,14 +3133,14 @@
         <v>1700</v>
       </c>
       <c r="O49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P49" s="3">
         <v>1800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3179,13 +3298,13 @@
         <v>1500</v>
       </c>
       <c r="E52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>1600</v>
       </c>
       <c r="G52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H52" s="3">
         <v>1500</v>
@@ -3194,10 +3313,10 @@
         <v>1500</v>
       </c>
       <c r="J52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1200</v>
       </c>
       <c r="L52" s="3">
         <v>1200</v>
@@ -3206,20 +3325,20 @@
         <v>1200</v>
       </c>
       <c r="N52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3303,47 +3428,47 @@
         <v>146200</v>
       </c>
       <c r="E54" s="3">
+        <v>146200</v>
+      </c>
+      <c r="F54" s="3">
         <v>134600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>136300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>137400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>139200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>140400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>142100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>143500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>144200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>116600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>116900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>115100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>77600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>76600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,55 +3533,56 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
       </c>
       <c r="J57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
       </c>
       <c r="L57" s="3">
+        <v>800</v>
+      </c>
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
+      <c r="R57" s="3">
+        <v>100</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
@@ -3466,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,25 +3661,28 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>10300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
@@ -3555,29 +3691,29 @@
         <v>600</v>
       </c>
       <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,56 +3726,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>10800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1200</v>
       </c>
       <c r="I60" s="3">
         <v>1200</v>
       </c>
       <c r="J60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3676,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>14900</v>
@@ -3685,7 +3827,7 @@
         <v>14900</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3726,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3735,35 +3880,35 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3">
         <v>24500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4116,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E66" s="3">
         <v>25400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>15200</v>
       </c>
       <c r="I66" s="3">
         <v>15200</v>
       </c>
       <c r="J66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K66" s="3">
         <v>31200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>10200</v>
       </c>
       <c r="N66" s="3">
         <v>10200</v>
       </c>
       <c r="O66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="P66" s="3">
         <v>9600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,50 +4466,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4726,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E76" s="3">
         <v>120800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>116800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>122100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>124100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>125200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>111000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>118000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>118800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>106400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>106700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>105400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>42900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1000</v>
       </c>
       <c r="L81" s="3">
         <v>-1000</v>
       </c>
       <c r="M81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-9300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,19 +5018,20 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -4848,7 +5046,7 @@
         <v>500</v>
       </c>
       <c r="K83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
@@ -4875,16 +5073,19 @@
         <v>400</v>
       </c>
       <c r="T83" s="3">
+        <v>400</v>
+      </c>
+      <c r="U83" s="3">
         <v>800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>400</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-700</v>
       </c>
       <c r="N89" s="3">
         <v>-700</v>
       </c>
       <c r="O89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-200</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
       </c>
       <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8700</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,17 +6041,20 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>13800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5817,11 +6062,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5829,40 +6074,43 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>30700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>2500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>19300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>18400</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5885,23 +6133,23 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5920,69 +6168,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>9600</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>RFL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,10 +773,10 @@
         <v>1000</v>
       </c>
       <c r="F8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3">
         <v>1100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1200</v>
       </c>
       <c r="H8" s="3">
         <v>1200</v>
@@ -784,46 +788,49 @@
         <v>1200</v>
       </c>
       <c r="K8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L8" s="3">
         <v>1400</v>
       </c>
       <c r="M8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,50 +990,51 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>300</v>
       </c>
       <c r="M12" s="3">
         <v>300</v>
       </c>
       <c r="N12" s="3">
+        <v>300</v>
+      </c>
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,29 +1124,32 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1165,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1172,22 +1192,25 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
       </c>
       <c r="G15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>500</v>
@@ -1202,7 +1225,7 @@
         <v>500</v>
       </c>
       <c r="L15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M15" s="3">
         <v>400</v>
@@ -1229,16 +1252,19 @@
         <v>400</v>
       </c>
       <c r="U15" s="3">
+        <v>400</v>
+      </c>
+      <c r="V15" s="3">
         <v>800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>400</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1800</v>
       </c>
       <c r="Q17" s="3">
         <v>1800</v>
       </c>
       <c r="R17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1400</v>
       </c>
       <c r="M18" s="3">
         <v>-1400</v>
       </c>
       <c r="N18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>200</v>
       </c>
       <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>200</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1585,8 +1625,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1597,8 +1637,8 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-700</v>
       </c>
       <c r="N23" s="3">
         <v>-700</v>
       </c>
       <c r="O23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-700</v>
       </c>
       <c r="Q23" s="3">
         <v>-700</v>
       </c>
       <c r="R23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1713,20 +1759,20 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-2500</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>8400</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1736,11 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-700</v>
       </c>
       <c r="N26" s="3">
         <v>-700</v>
       </c>
       <c r="O26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P26" s="3">
         <v>1100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-700</v>
       </c>
       <c r="Q26" s="3">
         <v>-700</v>
       </c>
       <c r="R26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S26" s="3">
         <v>-9300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1000</v>
       </c>
       <c r="M27" s="3">
         <v>-1000</v>
       </c>
       <c r="N27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
       </c>
       <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-9300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2013,11 +2074,11 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -2025,11 +2086,11 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -2037,12 +2098,12 @@
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2500</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1000</v>
       </c>
       <c r="M33" s="3">
         <v>-1000</v>
       </c>
       <c r="N33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
       </c>
       <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-9300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1000</v>
       </c>
       <c r="M35" s="3">
         <v>-1000</v>
       </c>
       <c r="N35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
       </c>
       <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-9300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,59 +2660,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11500</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2675,17 +2765,17 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>20100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>24700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>30900</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,59 +2794,62 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
-      </c>
-      <c r="E43" s="3">
-        <v>600</v>
       </c>
       <c r="F43" s="3">
         <v>600</v>
       </c>
       <c r="G43" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
       </c>
       <c r="I43" s="3">
+        <v>400</v>
+      </c>
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,31 +2930,34 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
@@ -2867,26 +2966,26 @@
         <v>500</v>
       </c>
       <c r="M45" s="3">
+        <v>500</v>
+      </c>
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,59 +2998,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E46" s="3">
         <v>6000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>44500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>44200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,59 +3066,62 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E47" s="3">
         <v>93500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>92700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>79100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>78900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>77400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>77700</v>
-      </c>
-      <c r="J47" s="3">
-        <v>77100</v>
       </c>
       <c r="K47" s="3">
         <v>77100</v>
       </c>
       <c r="L47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="M47" s="3">
         <v>76700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>76200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>17600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,58 +3134,61 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E48" s="3">
         <v>43600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>44100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>47800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>48300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>48600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>51000</v>
       </c>
       <c r="R48" s="3">
         <v>51000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>51000</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3124,7 +3235,7 @@
         <v>1600</v>
       </c>
       <c r="L49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M49" s="3">
         <v>1700</v>
@@ -3136,14 +3247,14 @@
         <v>1700</v>
       </c>
       <c r="P49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3301,13 +3421,13 @@
         <v>1500</v>
       </c>
       <c r="F52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G52" s="3">
         <v>1600</v>
       </c>
       <c r="H52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I52" s="3">
         <v>1500</v>
@@ -3316,10 +3436,10 @@
         <v>1500</v>
       </c>
       <c r="K52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L52" s="3">
         <v>1400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1200</v>
       </c>
       <c r="M52" s="3">
         <v>1200</v>
@@ -3328,20 +3448,20 @@
         <v>1200</v>
       </c>
       <c r="O52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,59 +3542,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>146200</v>
+        <v>154100</v>
       </c>
       <c r="E54" s="3">
         <v>146200</v>
       </c>
       <c r="F54" s="3">
+        <v>146200</v>
+      </c>
+      <c r="G54" s="3">
         <v>134600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>136300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>137400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>139200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>140400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>142100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>143500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>144200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>116600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>116900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>115100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>77600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>76600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,58 +3664,59 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
       </c>
       <c r="M57" s="3">
+        <v>800</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
+      <c r="S57" s="3">
+        <v>100</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
@@ -3599,31 +3730,34 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>14500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3664,28 +3798,31 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
@@ -3694,29 +3831,29 @@
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,59 +3866,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1200</v>
       </c>
       <c r="J60" s="3">
         <v>1200</v>
       </c>
       <c r="K60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3821,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>14900</v>
@@ -3830,7 +3973,7 @@
         <v>14900</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3874,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -3883,35 +4029,35 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3">
         <v>24500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23500</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,59 +4274,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E66" s="3">
         <v>19400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>15200</v>
       </c>
       <c r="J66" s="3">
         <v>15200</v>
       </c>
       <c r="K66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="L66" s="3">
         <v>31200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>10200</v>
       </c>
       <c r="O66" s="3">
         <v>10200</v>
       </c>
       <c r="P66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>9600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,53 +4640,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-28400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,59 +4912,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>122300</v>
+      </c>
+      <c r="E76" s="3">
         <v>126800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>120800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>115600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>116800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>122100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>124100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>125200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>111000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>118000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>118800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>106400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>106700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>105400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>42900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1000</v>
       </c>
       <c r="M81" s="3">
         <v>-1000</v>
       </c>
       <c r="N81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
       </c>
       <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-9300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,22 +5217,23 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -5049,7 +5248,7 @@
         <v>500</v>
       </c>
       <c r="L83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
@@ -5076,16 +5275,19 @@
         <v>400</v>
       </c>
       <c r="U83" s="3">
+        <v>400</v>
+      </c>
+      <c r="V83" s="3">
         <v>800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>400</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-700</v>
       </c>
       <c r="O89" s="3">
         <v>-700</v>
       </c>
       <c r="P89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5508,64 +5729,67 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-200</v>
       </c>
       <c r="S91" s="3">
         <v>-200</v>
       </c>
       <c r="T91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8700</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,20 +6287,23 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6065,11 +6311,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6077,45 +6323,48 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>30700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>2500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>19300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>18400</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6136,23 +6385,23 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -6171,72 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>9500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>9600</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>RFL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,10 +780,10 @@
         <v>1000</v>
       </c>
       <c r="G8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="3">
         <v>1100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1200</v>
       </c>
       <c r="I8" s="3">
         <v>1200</v>
@@ -791,46 +795,49 @@
         <v>1200</v>
       </c>
       <c r="L8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="M8" s="3">
         <v>1400</v>
       </c>
       <c r="N8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1400</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,53 +1004,54 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>300</v>
       </c>
       <c r="N12" s="3">
         <v>300</v>
       </c>
       <c r="O12" s="3">
+        <v>300</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,32 +1144,35 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1168,8 +1188,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,16 +1227,16 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
       </c>
       <c r="H15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
@@ -1228,7 +1251,7 @@
         <v>500</v>
       </c>
       <c r="M15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
@@ -1255,16 +1278,19 @@
         <v>400</v>
       </c>
       <c r="V15" s="3">
+        <v>400</v>
+      </c>
+      <c r="W15" s="3">
         <v>800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>400</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129900</v>
+      </c>
+      <c r="E17" s="3">
         <v>14000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1800</v>
       </c>
       <c r="R17" s="3">
         <v>1800</v>
       </c>
       <c r="S17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-128900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1400</v>
       </c>
       <c r="N18" s="3">
         <v>-1400</v>
       </c>
       <c r="O18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>200</v>
       </c>
       <c r="W18" s="3">
         <v>200</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-128500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-12200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>500</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1628,8 +1668,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1680,8 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-700</v>
       </c>
       <c r="O23" s="3">
         <v>-700</v>
       </c>
       <c r="P23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-700</v>
       </c>
       <c r="R23" s="3">
         <v>-700</v>
       </c>
       <c r="S23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1762,20 +1808,20 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>8400</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1785,11 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-700</v>
       </c>
       <c r="O26" s="3">
         <v>-700</v>
       </c>
       <c r="P26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-700</v>
       </c>
       <c r="R26" s="3">
         <v>-700</v>
       </c>
       <c r="S26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T26" s="3">
         <v>-9300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1000</v>
       </c>
       <c r="N27" s="3">
         <v>-1000</v>
       </c>
       <c r="O27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-500</v>
       </c>
       <c r="R27" s="3">
         <v>-500</v>
       </c>
       <c r="S27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T27" s="3">
         <v>-9300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,40 +2118,43 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
@@ -2101,12 +2162,12 @@
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1000</v>
       </c>
       <c r="N33" s="3">
         <v>-1000</v>
       </c>
       <c r="O33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-500</v>
       </c>
       <c r="R33" s="3">
         <v>-500</v>
       </c>
       <c r="S33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T33" s="3">
         <v>-9300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1000</v>
       </c>
       <c r="N35" s="3">
         <v>-1000</v>
       </c>
       <c r="O35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-500</v>
       </c>
       <c r="R35" s="3">
         <v>-500</v>
       </c>
       <c r="S35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T35" s="3">
         <v>-9300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,62 +2747,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E41" s="3">
         <v>7900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,8 +2816,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2768,17 +2858,17 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>20100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>24700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>30900</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,62 +2887,65 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
       </c>
       <c r="J43" s="3">
+        <v>400</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,34 +3029,37 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E45" s="3">
         <v>6000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
       </c>
       <c r="K45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
@@ -2969,26 +3068,26 @@
         <v>500</v>
       </c>
       <c r="N45" s="3">
+        <v>500</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3001,62 +3100,65 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E46" s="3">
         <v>14800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>44500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>44200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3069,62 +3171,65 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E47" s="3">
         <v>93000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>93500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>92700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>79100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>78900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>77400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>77700</v>
-      </c>
-      <c r="K47" s="3">
-        <v>77100</v>
       </c>
       <c r="L47" s="3">
         <v>77100</v>
       </c>
       <c r="M47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="N47" s="3">
         <v>76700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>76200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>19500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>17600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3137,61 +3242,64 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E48" s="3">
         <v>43200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>44400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>47800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>48300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>48700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>50600</v>
-      </c>
-      <c r="R48" s="3">
-        <v>51000</v>
       </c>
       <c r="S48" s="3">
         <v>51000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
+      <c r="T48" s="3">
+        <v>51000</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3238,7 +3349,7 @@
         <v>1600</v>
       </c>
       <c r="M49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="N49" s="3">
         <v>1700</v>
@@ -3250,14 +3361,14 @@
         <v>1700</v>
       </c>
       <c r="Q49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R49" s="3">
         <v>1800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1700</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3424,13 +3544,13 @@
         <v>1500</v>
       </c>
       <c r="G52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H52" s="3">
         <v>1600</v>
       </c>
       <c r="I52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J52" s="3">
         <v>1500</v>
@@ -3439,10 +3559,10 @@
         <v>1500</v>
       </c>
       <c r="L52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M52" s="3">
         <v>1400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1200</v>
       </c>
       <c r="N52" s="3">
         <v>1200</v>
@@ -3451,20 +3571,20 @@
         <v>1200</v>
       </c>
       <c r="P52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>700</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,62 +3668,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E54" s="3">
         <v>154100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>146200</v>
       </c>
       <c r="F54" s="3">
         <v>146200</v>
       </c>
       <c r="G54" s="3">
+        <v>146200</v>
+      </c>
+      <c r="H54" s="3">
         <v>134600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>136300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>137400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>139200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>140400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>142100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>143500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>144200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>116600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>116900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>115100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>77600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,61 +3795,62 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
       </c>
       <c r="L57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>800</v>
       </c>
       <c r="N57" s="3">
+        <v>800</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
+      <c r="T57" s="3">
+        <v>100</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
@@ -3733,17 +3864,20 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E58" s="3">
         <v>14500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3759,8 +3893,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3801,31 +3935,34 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
@@ -3834,29 +3971,29 @@
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,53 +4018,53 @@
         <v>17300</v>
       </c>
       <c r="E60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1200</v>
       </c>
       <c r="K60" s="3">
         <v>1200</v>
       </c>
       <c r="L60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3967,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>14900</v>
@@ -3976,7 +4119,7 @@
         <v>14900</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4005,13 +4148,16 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4023,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -4032,35 +4178,35 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3">
         <v>24500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>23500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,62 +4432,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E66" s="3">
         <v>31800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>15200</v>
       </c>
       <c r="K66" s="3">
         <v>15200</v>
       </c>
       <c r="L66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="M66" s="3">
         <v>31200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>10200</v>
       </c>
       <c r="P66" s="3">
         <v>10200</v>
       </c>
       <c r="Q66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="R66" s="3">
         <v>9600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,56 +4814,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-170100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-40800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-28400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,62 +5098,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E76" s="3">
         <v>122300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>126800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>120800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>115600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>116800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>122100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>124100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>125200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>111000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>118000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>118800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>106400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>106700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>105400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>42900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1000</v>
       </c>
       <c r="N81" s="3">
         <v>-1000</v>
       </c>
       <c r="O81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-500</v>
       </c>
       <c r="R81" s="3">
         <v>-500</v>
       </c>
       <c r="S81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T81" s="3">
         <v>-9300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,16 +5426,16 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -5251,7 +5450,7 @@
         <v>500</v>
       </c>
       <c r="M83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
@@ -5278,16 +5477,19 @@
         <v>400</v>
       </c>
       <c r="V83" s="3">
+        <v>400</v>
+      </c>
+      <c r="W83" s="3">
         <v>800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>400</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-700</v>
       </c>
       <c r="P89" s="3">
         <v>-700</v>
       </c>
       <c r="Q89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5732,64 +5953,67 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-200</v>
       </c>
       <c r="T91" s="3">
         <v>-200</v>
       </c>
       <c r="U91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-700</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8700</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,23 +6533,26 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E100" s="3">
         <v>14500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6314,11 +6560,11 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6326,49 +6572,52 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>30700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>2500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>19300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>18400</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -6388,23 +6637,23 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -6423,75 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E102" s="3">
         <v>8200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>9500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>9600</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>RFL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,117 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E8" s="3">
         <v>1000</v>
@@ -783,10 +787,10 @@
         <v>1000</v>
       </c>
       <c r="H8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1200</v>
       </c>
       <c r="J8" s="3">
         <v>1200</v>
@@ -798,46 +802,49 @@
         <v>1200</v>
       </c>
       <c r="M8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="N8" s="3">
         <v>1400</v>
       </c>
       <c r="O8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,56 +1018,57 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>300</v>
       </c>
       <c r="O12" s="3">
         <v>300</v>
       </c>
       <c r="P12" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1000</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,35 +1164,38 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>79100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>7000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1211,8 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1230,16 +1253,16 @@
         <v>400</v>
       </c>
       <c r="F15" s="3">
+        <v>400</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
       </c>
       <c r="I15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>500</v>
@@ -1254,7 +1277,7 @@
         <v>500</v>
       </c>
       <c r="N15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
@@ -1281,16 +1304,19 @@
         <v>400</v>
       </c>
       <c r="W15" s="3">
+        <v>400</v>
+      </c>
+      <c r="X15" s="3">
         <v>800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>400</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>129900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1800</v>
       </c>
       <c r="S17" s="3">
         <v>1800</v>
       </c>
       <c r="T17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-128900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1400</v>
       </c>
       <c r="O18" s="3">
         <v>-1400</v>
       </c>
       <c r="P18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
-      </c>
-      <c r="W18" s="3">
-        <v>200</v>
       </c>
       <c r="X18" s="3">
         <v>200</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1515,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-128500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-300</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>500</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1671,8 +1711,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1683,8 +1723,8 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1695,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-128800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-700</v>
       </c>
       <c r="P23" s="3">
         <v>-700</v>
       </c>
       <c r="Q23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-700</v>
       </c>
       <c r="S23" s="3">
         <v>-700</v>
       </c>
       <c r="T23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1811,20 +1857,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-2500</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>8400</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1834,11 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-128800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-700</v>
       </c>
       <c r="P26" s="3">
         <v>-700</v>
       </c>
       <c r="Q26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R26" s="3">
         <v>1100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-700</v>
       </c>
       <c r="S26" s="3">
         <v>-700</v>
       </c>
       <c r="T26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U26" s="3">
         <v>-9300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-112000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1000</v>
       </c>
       <c r="O27" s="3">
         <v>-1000</v>
       </c>
       <c r="P27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-500</v>
       </c>
       <c r="S27" s="3">
         <v>-500</v>
       </c>
       <c r="T27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U27" s="3">
         <v>-9300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2147,17 +2208,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
@@ -2165,12 +2226,12 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2500</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-112000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1000</v>
       </c>
       <c r="O33" s="3">
         <v>-1000</v>
       </c>
       <c r="P33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-500</v>
       </c>
       <c r="S33" s="3">
         <v>-500</v>
       </c>
       <c r="T33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U33" s="3">
         <v>-9300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-112000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1000</v>
       </c>
       <c r="O35" s="3">
         <v>-1000</v>
       </c>
       <c r="P35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-500</v>
       </c>
       <c r="S35" s="3">
         <v>-500</v>
       </c>
       <c r="T35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U35" s="3">
         <v>-9300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,65 +2834,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E41" s="3">
         <v>72400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11500</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2819,8 +2906,11 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2861,17 +2951,17 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>20100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>24700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>30900</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2899,56 +2992,56 @@
         <v>700</v>
       </c>
       <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,37 +3128,40 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
         <v>5400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>500</v>
@@ -3071,26 +3170,26 @@
         <v>500</v>
       </c>
       <c r="O45" s="3">
+        <v>500</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3103,65 +3202,68 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E46" s="3">
         <v>78500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>44500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>44200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12000</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3174,65 +3276,68 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E47" s="3">
         <v>6000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>93000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>93500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>92700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>79100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>78900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>77400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>77700</v>
-      </c>
-      <c r="L47" s="3">
-        <v>77100</v>
       </c>
       <c r="M47" s="3">
         <v>77100</v>
       </c>
       <c r="N47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="O47" s="3">
         <v>76700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>76200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>17600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13000</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3245,64 +3350,67 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E48" s="3">
         <v>42900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>43800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>44100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>44400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>47800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>48600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>48700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>49700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>50100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>50600</v>
-      </c>
-      <c r="S48" s="3">
-        <v>51000</v>
       </c>
       <c r="T48" s="3">
         <v>51000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
+      <c r="U48" s="3">
+        <v>51000</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3352,7 +3463,7 @@
         <v>1600</v>
       </c>
       <c r="N49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="O49" s="3">
         <v>1700</v>
@@ -3364,14 +3475,14 @@
         <v>1700</v>
       </c>
       <c r="R49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S49" s="3">
         <v>1800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1700</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,13 +3646,16 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
         <v>1500</v>
@@ -3547,13 +3667,13 @@
         <v>1500</v>
       </c>
       <c r="H52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I52" s="3">
         <v>1600</v>
       </c>
       <c r="J52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K52" s="3">
         <v>1500</v>
@@ -3562,10 +3682,10 @@
         <v>1500</v>
       </c>
       <c r="M52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N52" s="3">
         <v>1400</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1200</v>
       </c>
       <c r="O52" s="3">
         <v>1200</v>
@@ -3574,20 +3694,20 @@
         <v>1200</v>
       </c>
       <c r="Q52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R52" s="3">
         <v>1100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>700</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,65 +3794,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>122600</v>
+      </c>
+      <c r="E54" s="3">
         <v>130400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>154100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>146200</v>
       </c>
       <c r="G54" s="3">
         <v>146200</v>
       </c>
       <c r="H54" s="3">
+        <v>146200</v>
+      </c>
+      <c r="I54" s="3">
         <v>134600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>136300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>137400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>139200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>140400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>142100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>143500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>144200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>116600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>116900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>115100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>77600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>76600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3805,55 +3936,55 @@
         <v>1200</v>
       </c>
       <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
       </c>
       <c r="M57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
       </c>
       <c r="O57" s="3">
+        <v>800</v>
+      </c>
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
+      <c r="U57" s="3">
+        <v>100</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
@@ -3867,20 +3998,23 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E58" s="3">
         <v>14700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4030,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3938,34 +4072,37 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
@@ -3974,29 +4111,29 @@
         <v>600</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4009,65 +4146,68 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17300</v>
+        <v>22800</v>
       </c>
       <c r="E60" s="3">
         <v>17300</v>
       </c>
       <c r="F60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1200</v>
       </c>
       <c r="L60" s="3">
         <v>1200</v>
       </c>
       <c r="M60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4113,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>14900</v>
@@ -4122,7 +4265,7 @@
         <v>14900</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4160,7 +4306,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4172,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -4181,35 +4327,35 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3">
         <v>24500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>23500</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,65 +4590,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E66" s="3">
         <v>31700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>15200</v>
       </c>
       <c r="L66" s="3">
         <v>15200</v>
       </c>
       <c r="M66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="N66" s="3">
         <v>31200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>10200</v>
       </c>
       <c r="Q66" s="3">
         <v>10200</v>
       </c>
       <c r="R66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="S66" s="3">
         <v>9600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,59 +4988,62 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-155100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-170100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-28400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,65 +5284,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E76" s="3">
         <v>98700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>122300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>126800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>120800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>115600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>116800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>122100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>124100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>125200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>111000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>118000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>118800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>106400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>106700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>105400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>42900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>43400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-112000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1000</v>
       </c>
       <c r="O81" s="3">
         <v>-1000</v>
       </c>
       <c r="P81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-500</v>
       </c>
       <c r="S81" s="3">
         <v>-500</v>
       </c>
       <c r="T81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U81" s="3">
         <v>-9300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5429,16 +5628,16 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -5453,7 +5652,7 @@
         <v>500</v>
       </c>
       <c r="N83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
@@ -5480,16 +5679,19 @@
         <v>400</v>
       </c>
       <c r="W83" s="3">
+        <v>400</v>
+      </c>
+      <c r="X83" s="3">
         <v>800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>400</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-700</v>
       </c>
       <c r="Q89" s="3">
         <v>-700</v>
       </c>
       <c r="R89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5956,64 +6177,67 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-200</v>
       </c>
       <c r="U91" s="3">
         <v>-200</v>
       </c>
       <c r="V91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-700</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,26 +6779,29 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>97900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6563,11 +6809,11 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -6575,40 +6821,43 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>30700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>2500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>19300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>18400</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6616,11 +6865,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -6640,23 +6889,23 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -6675,78 +6924,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E102" s="3">
         <v>64500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>9500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>9600</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>RFL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,123 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1000</v>
       </c>
       <c r="F8" s="3">
         <v>1000</v>
@@ -790,10 +793,10 @@
         <v>1000</v>
       </c>
       <c r="I8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="3">
         <v>1100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1200</v>
       </c>
       <c r="K8" s="3">
         <v>1200</v>
@@ -805,46 +808,49 @@
         <v>1200</v>
       </c>
       <c r="N8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="O8" s="3">
         <v>1400</v>
       </c>
       <c r="P8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1400</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,59 +1031,60 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="3">
         <v>3300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>300</v>
       </c>
       <c r="P12" s="3">
         <v>300</v>
       </c>
       <c r="Q12" s="3">
+        <v>300</v>
+      </c>
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1000</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1176,29 +1195,29 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>79100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>7000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1214,8 +1233,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1256,16 +1278,16 @@
         <v>400</v>
       </c>
       <c r="G15" s="3">
+        <v>400</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
       </c>
       <c r="J15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
@@ -1280,7 +1302,7 @@
         <v>500</v>
       </c>
       <c r="O15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P15" s="3">
         <v>400</v>
@@ -1307,16 +1329,19 @@
         <v>400</v>
       </c>
       <c r="X15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y15" s="3">
         <v>800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>400</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>129900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1800</v>
       </c>
       <c r="T17" s="3">
         <v>1800</v>
       </c>
       <c r="U17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-128900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1400</v>
       </c>
       <c r="P18" s="3">
         <v>-1400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
-      </c>
-      <c r="X18" s="3">
-        <v>200</v>
       </c>
       <c r="Y18" s="3">
         <v>200</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,179 +1548,186 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
       <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
-      </c>
-      <c r="W20" s="3">
-        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-128500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
       <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>500</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1714,8 +1753,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1726,8 +1765,8 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1738,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-128800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-700</v>
       </c>
       <c r="Q23" s="3">
         <v>-700</v>
       </c>
       <c r="R23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-700</v>
       </c>
       <c r="T23" s="3">
         <v>-700</v>
       </c>
       <c r="U23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1860,20 +1905,20 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-2500</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>8400</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1883,11 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-128800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-700</v>
       </c>
       <c r="Q26" s="3">
         <v>-700</v>
       </c>
       <c r="R26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S26" s="3">
         <v>1100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-700</v>
       </c>
       <c r="T26" s="3">
         <v>-700</v>
       </c>
       <c r="U26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V26" s="3">
         <v>-9300</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
       <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>100</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-112000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1000</v>
       </c>
       <c r="P27" s="3">
         <v>-1000</v>
       </c>
       <c r="Q27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-500</v>
       </c>
       <c r="T27" s="3">
         <v>-500</v>
       </c>
       <c r="U27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V27" s="3">
         <v>-9300</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
       <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>100</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2211,17 +2271,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
@@ -2229,12 +2289,12 @@
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2500</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
       <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>-100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-112000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1000</v>
       </c>
       <c r="P33" s="3">
         <v>-1000</v>
       </c>
       <c r="Q33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-500</v>
       </c>
       <c r="T33" s="3">
         <v>-500</v>
       </c>
       <c r="U33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V33" s="3">
         <v>-9300</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
       <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-112000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1000</v>
       </c>
       <c r="P35" s="3">
         <v>-1000</v>
       </c>
       <c r="Q35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-500</v>
       </c>
       <c r="T35" s="3">
         <v>-500</v>
       </c>
       <c r="U35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V35" s="3">
         <v>-9300</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
       <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,68 +2920,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E41" s="3">
         <v>65000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>72400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11500</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2909,31 +2995,34 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>30400</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2954,17 +3043,17 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>20100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>24700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>30900</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,68 +3072,71 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
         <v>700</v>
       </c>
       <c r="F43" s="3">
+        <v>700</v>
+      </c>
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
       </c>
       <c r="J43" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
       </c>
       <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3149,11 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,40 +3226,43 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>500</v>
@@ -3173,26 +3271,26 @@
         <v>500</v>
       </c>
       <c r="P45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,68 +3303,71 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E46" s="3">
         <v>71500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>78500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>44500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>44200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12000</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3279,68 +3380,71 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E47" s="3">
         <v>5500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>93000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>93500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>92700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>79100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>78900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>77400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>77700</v>
-      </c>
-      <c r="M47" s="3">
-        <v>77100</v>
       </c>
       <c r="N47" s="3">
         <v>77100</v>
       </c>
       <c r="O47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="P47" s="3">
         <v>76700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>76200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>29600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>17600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13000</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,67 +3457,70 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E48" s="3">
         <v>42500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>42900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>43600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>43800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>44100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>44400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>47800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>48300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>48600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>48700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>49400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>49700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>50100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>50600</v>
-      </c>
-      <c r="T48" s="3">
-        <v>51000</v>
       </c>
       <c r="U48" s="3">
         <v>51000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
+      <c r="V48" s="3">
+        <v>51000</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
@@ -3427,8 +3534,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3466,7 +3576,7 @@
         <v>1600</v>
       </c>
       <c r="O49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="P49" s="3">
         <v>1700</v>
@@ -3478,14 +3588,14 @@
         <v>1700</v>
       </c>
       <c r="S49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T49" s="3">
         <v>1800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1700</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3658,7 +3777,7 @@
         <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F52" s="3">
         <v>1500</v>
@@ -3670,13 +3789,13 @@
         <v>1500</v>
       </c>
       <c r="I52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J52" s="3">
         <v>1600</v>
       </c>
       <c r="K52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L52" s="3">
         <v>1500</v>
@@ -3685,10 +3804,10 @@
         <v>1500</v>
       </c>
       <c r="N52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O52" s="3">
         <v>1400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1200</v>
       </c>
       <c r="P52" s="3">
         <v>1200</v>
@@ -3697,20 +3816,20 @@
         <v>1200</v>
       </c>
       <c r="R52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>700</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,68 +3919,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E54" s="3">
         <v>122600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>130400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>154100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>146200</v>
       </c>
       <c r="H54" s="3">
         <v>146200</v>
       </c>
       <c r="I54" s="3">
+        <v>146200</v>
+      </c>
+      <c r="J54" s="3">
         <v>134600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>136300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>137400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>139200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>140400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>142100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>143500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>144200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>116600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>116900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>115100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>77600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>76600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,67 +4056,68 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
         <v>1200</v>
       </c>
       <c r="F57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
       </c>
       <c r="N57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>800</v>
       </c>
       <c r="P57" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
+      <c r="V57" s="3">
+        <v>100</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
@@ -4001,23 +4131,26 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E58" s="3">
         <v>14800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4033,8 +4166,8 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4075,37 +4208,40 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>6900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
@@ -4114,29 +4250,29 @@
         <v>600</v>
       </c>
       <c r="O59" s="3">
+        <v>600</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4149,68 +4285,71 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E60" s="3">
         <v>22800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>17300</v>
       </c>
       <c r="F60" s="3">
         <v>17300</v>
       </c>
       <c r="G60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1200</v>
       </c>
       <c r="M60" s="3">
         <v>1200</v>
       </c>
       <c r="N60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4223,8 +4362,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4259,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>14900</v>
@@ -4268,7 +4410,7 @@
         <v>14900</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -4297,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4309,7 +4454,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4321,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -4330,35 +4475,35 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>500</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3">
         <v>24500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>23500</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,68 +4747,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E66" s="3">
         <v>19700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>15200</v>
       </c>
       <c r="M66" s="3">
         <v>15200</v>
       </c>
       <c r="N66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="O66" s="3">
         <v>31200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>10200</v>
       </c>
       <c r="R66" s="3">
         <v>10200</v>
       </c>
       <c r="S66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="T66" s="3">
         <v>9600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,62 +5161,65 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-160700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-155100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-170100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-40800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-28400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-25900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5065,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,68 +5469,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E76" s="3">
         <v>102900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>98700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>122300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>126800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>120800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>115600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>116800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>122100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>124100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>125200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>111000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>118000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>118800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>106400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>106700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>105400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>42900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>43400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-112000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1000</v>
       </c>
       <c r="P81" s="3">
         <v>-1000</v>
       </c>
       <c r="Q81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-500</v>
       </c>
       <c r="T81" s="3">
         <v>-500</v>
       </c>
       <c r="U81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V81" s="3">
         <v>-9300</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
       <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5631,16 +5829,16 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -5655,7 +5853,7 @@
         <v>500</v>
       </c>
       <c r="O83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P83" s="3">
         <v>400</v>
@@ -5682,16 +5880,19 @@
         <v>400</v>
       </c>
       <c r="X83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y83" s="3">
         <v>800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>400</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-700</v>
       </c>
       <c r="R89" s="3">
         <v>-700</v>
       </c>
       <c r="S89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6180,64 +6400,67 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-200</v>
       </c>
       <c r="V91" s="3">
         <v>-200</v>
       </c>
       <c r="W91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-700</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-30500</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-26900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6791,20 +7036,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>97900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -6812,11 +7057,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -6824,55 +7069,58 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>30700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>900</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>2500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>19300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>18400</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -6892,23 +7140,23 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -6927,81 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>64500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>9500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>9600</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>RFL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,145 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1000</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
       </c>
       <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>600</v>
+      </c>
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1200</v>
       </c>
       <c r="L8" s="3">
         <v>1200</v>
@@ -811,46 +815,49 @@
         <v>1200</v>
       </c>
       <c r="O8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="P8" s="3">
         <v>1400</v>
       </c>
       <c r="Q8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1400</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,62 +1045,63 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F12" s="3">
         <v>3300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3">
-        <v>1300</v>
-      </c>
       <c r="I12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>300</v>
       </c>
       <c r="Q12" s="3">
         <v>300</v>
       </c>
       <c r="R12" s="3">
+        <v>300</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1000</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,32 +1215,32 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>79100</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>79100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1236,8 +1256,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1263,16 +1283,19 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
@@ -1281,16 +1304,16 @@
         <v>400</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
       </c>
       <c r="K15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L15" s="3">
         <v>500</v>
@@ -1305,7 +1328,7 @@
         <v>500</v>
       </c>
       <c r="P15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q15" s="3">
         <v>400</v>
@@ -1332,16 +1355,19 @@
         <v>400</v>
       </c>
       <c r="Y15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z15" s="3">
         <v>800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>400</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,85 +1392,89 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5700</v>
+        <v>4900</v>
       </c>
       <c r="E17" s="3">
+        <v>135100</v>
+      </c>
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>129900</v>
       </c>
-      <c r="G17" s="3">
-        <v>14000</v>
-      </c>
       <c r="H17" s="3">
-        <v>4500</v>
+        <v>13100</v>
       </c>
       <c r="I17" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J17" s="3">
         <v>11800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1800</v>
       </c>
       <c r="U17" s="3">
         <v>1800</v>
       </c>
       <c r="V17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1482,79 @@
         <v>-4800</v>
       </c>
       <c r="E18" s="3">
+        <v>-134200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-128900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-13000</v>
-      </c>
       <c r="H18" s="3">
-        <v>-3500</v>
+        <v>-12900</v>
       </c>
       <c r="I18" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-10800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q18" s="3">
         <v>-1400</v>
       </c>
       <c r="R18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>200</v>
       </c>
       <c r="Z18" s="3">
         <v>200</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,188 +1582,195 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>600</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>700</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>600</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>500</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
-      </c>
-      <c r="X20" s="3">
-        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4800</v>
+        <v>-5700</v>
       </c>
       <c r="E21" s="3">
+        <v>-134500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-128500</v>
       </c>
-      <c r="G21" s="3">
-        <v>-12200</v>
-      </c>
       <c r="H21" s="3">
-        <v>-2500</v>
+        <v>-11900</v>
       </c>
       <c r="I21" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-7900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>500</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1756,8 +1796,8 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1768,8 +1808,8 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5500</v>
+        <v>-4600</v>
       </c>
       <c r="E23" s="3">
+        <v>-135700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-128800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-12500</v>
-      </c>
       <c r="H23" s="3">
-        <v>-2700</v>
+        <v>-12300</v>
       </c>
       <c r="I23" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-8300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-700</v>
       </c>
       <c r="R23" s="3">
         <v>-700</v>
       </c>
       <c r="S23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-700</v>
       </c>
       <c r="U23" s="3">
         <v>-700</v>
       </c>
       <c r="V23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>100</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1908,20 +1954,20 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-2500</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>8400</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -1931,11 +1977,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5500</v>
+        <v>-4600</v>
       </c>
       <c r="E26" s="3">
+        <v>-135700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-128800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-12500</v>
-      </c>
       <c r="H26" s="3">
-        <v>-2700</v>
+        <v>-12300</v>
       </c>
       <c r="I26" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-700</v>
       </c>
       <c r="R26" s="3">
         <v>-700</v>
       </c>
       <c r="S26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T26" s="3">
         <v>1100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-700</v>
       </c>
       <c r="U26" s="3">
         <v>-700</v>
       </c>
       <c r="V26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W26" s="3">
         <v>-9300</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>100</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5500</v>
+        <v>-4600</v>
       </c>
       <c r="E27" s="3">
+        <v>-118600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-112000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-12400</v>
-      </c>
       <c r="H27" s="3">
-        <v>-2600</v>
+        <v>-12200</v>
       </c>
       <c r="I27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-8200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q27" s="3">
         <v>-1000</v>
       </c>
       <c r="R27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-500</v>
       </c>
       <c r="U27" s="3">
         <v>-500</v>
       </c>
       <c r="V27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W27" s="3">
         <v>-9300</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>100</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,31 +2300,34 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-1600</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-1500</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2274,17 +2335,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
@@ -2292,12 +2353,12 @@
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="3">
         <v>-2500</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5500</v>
+        <v>-4800</v>
       </c>
       <c r="E33" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-112000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-2600</v>
-      </c>
       <c r="I33" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-8200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q33" s="3">
         <v>-1000</v>
       </c>
       <c r="R33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-500</v>
       </c>
       <c r="U33" s="3">
         <v>-500</v>
       </c>
       <c r="V33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W33" s="3">
         <v>-9300</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>100</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5500</v>
+        <v>-4800</v>
       </c>
       <c r="E35" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-112000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-2600</v>
-      </c>
       <c r="I35" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-8200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q35" s="3">
         <v>-1000</v>
       </c>
       <c r="R35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-500</v>
       </c>
       <c r="U35" s="3">
         <v>-500</v>
       </c>
       <c r="V35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W35" s="3">
         <v>-9300</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>100</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,71 +3007,72 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E41" s="3">
         <v>29000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>65000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>72400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11500</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2998,17 +3085,20 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E42" s="3">
         <v>30400</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3024,8 +3114,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3046,17 +3136,17 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>20100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>24700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>30900</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3075,71 +3165,74 @@
       <c r="AA42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>700</v>
       </c>
       <c r="F43" s="3">
         <v>700</v>
       </c>
       <c r="G43" s="3">
+        <v>700</v>
+      </c>
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
       </c>
       <c r="K43" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
       </c>
       <c r="M43" s="3">
+        <v>400</v>
+      </c>
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,43 +3325,46 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
@@ -3274,26 +3373,26 @@
         <v>500</v>
       </c>
       <c r="Q45" s="3">
+        <v>500</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3306,71 +3405,74 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E46" s="3">
         <v>62500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>71500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>78500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>44500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>44200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12000</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3392,62 +3497,62 @@
         <v>5200</v>
       </c>
       <c r="E47" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F47" s="3">
         <v>5500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>93000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>93500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>92700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>79100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>78900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>77400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>77700</v>
-      </c>
-      <c r="N47" s="3">
-        <v>77100</v>
       </c>
       <c r="O47" s="3">
         <v>77100</v>
       </c>
       <c r="P47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="Q47" s="3">
         <v>76700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>76200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>29600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>19500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>17600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>13000</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3460,70 +3565,73 @@
       <c r="AA47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>42200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>42500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>42900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>43200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>43600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>43800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>44100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>47800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>48300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>48600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>48700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>49200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>49400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>49700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>50100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>50600</v>
-      </c>
-      <c r="U48" s="3">
-        <v>51000</v>
       </c>
       <c r="V48" s="3">
         <v>51000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
+      <c r="W48" s="3">
+        <v>51000</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3579,7 +3690,7 @@
         <v>1600</v>
       </c>
       <c r="P49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="Q49" s="3">
         <v>1700</v>
@@ -3591,14 +3702,14 @@
         <v>1700</v>
       </c>
       <c r="T49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U49" s="3">
         <v>1800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1700</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3780,7 +3900,7 @@
         <v>1400</v>
       </c>
       <c r="F52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G52" s="3">
         <v>1500</v>
@@ -3792,13 +3912,13 @@
         <v>1500</v>
       </c>
       <c r="J52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K52" s="3">
         <v>1600</v>
       </c>
       <c r="L52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M52" s="3">
         <v>1500</v>
@@ -3807,10 +3927,10 @@
         <v>1500</v>
       </c>
       <c r="O52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P52" s="3">
         <v>1400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1200</v>
       </c>
       <c r="Q52" s="3">
         <v>1200</v>
@@ -3819,20 +3939,20 @@
         <v>1200</v>
       </c>
       <c r="S52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T52" s="3">
         <v>1100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>700</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,71 +4045,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E54" s="3">
         <v>112800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>122600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>130400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>154100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>146200</v>
       </c>
       <c r="I54" s="3">
         <v>146200</v>
       </c>
       <c r="J54" s="3">
+        <v>146200</v>
+      </c>
+      <c r="K54" s="3">
         <v>134600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>136300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>137400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>139200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>140400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>142100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>143500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>144200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>116600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>116900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>115100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>77600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>76600</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,70 +4187,71 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1200</v>
       </c>
       <c r="F57" s="3">
         <v>1200</v>
       </c>
       <c r="G57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
       </c>
       <c r="O57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>800</v>
       </c>
       <c r="Q57" s="3">
+        <v>800</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
+      <c r="W57" s="3">
+        <v>100</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
@@ -4134,26 +4265,29 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E58" s="3">
         <v>14900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4169,8 +4303,8 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4211,40 +4345,43 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
@@ -4253,29 +4390,29 @@
         <v>600</v>
       </c>
       <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4288,71 +4425,74 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E60" s="3">
         <v>17800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>17300</v>
       </c>
       <c r="G60" s="3">
         <v>17300</v>
       </c>
       <c r="H60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1200</v>
       </c>
       <c r="N60" s="3">
         <v>1200</v>
       </c>
       <c r="O60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4404,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>14900</v>
@@ -4413,7 +4556,7 @@
         <v>14900</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4457,7 +4603,7 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4469,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -4478,35 +4624,35 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3">
         <v>24500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>23500</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,71 +4905,74 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E66" s="3">
         <v>14600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>15200</v>
       </c>
       <c r="N66" s="3">
         <v>15200</v>
       </c>
       <c r="O66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="P66" s="3">
         <v>31200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>25300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>10200</v>
       </c>
       <c r="S66" s="3">
         <v>10200</v>
       </c>
       <c r="T66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="U66" s="3">
         <v>9600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>34700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,65 +5335,68 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-165500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-160700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-155100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-170100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-40800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,71 +5655,74 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E76" s="3">
         <v>98100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>102900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>122300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>126800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>120800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>115600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>116800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>122100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>124100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>125200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>111000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>118000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>118800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>106400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>106700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>105400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>42900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>43400</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5500</v>
+        <v>-4800</v>
       </c>
       <c r="E81" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-112000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-2600</v>
-      </c>
       <c r="I81" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-8200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q81" s="3">
         <v>-1000</v>
       </c>
       <c r="R81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-500</v>
       </c>
       <c r="U81" s="3">
         <v>-500</v>
       </c>
       <c r="V81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W81" s="3">
         <v>-9300</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>100</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,16 +6012,17 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>-1100</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -5832,16 +6031,16 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
       </c>
       <c r="K83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
@@ -5856,7 +6055,7 @@
         <v>500</v>
       </c>
       <c r="P83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q83" s="3">
         <v>400</v>
@@ -5883,16 +6082,19 @@
         <v>400</v>
       </c>
       <c r="Y83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z83" s="3">
         <v>800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>400</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-10400</v>
+        <v>-1900</v>
       </c>
       <c r="E89" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7000</v>
       </c>
-      <c r="H89" s="3">
-        <v>-3100</v>
-      </c>
       <c r="I89" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-700</v>
       </c>
       <c r="S89" s="3">
         <v>-700</v>
       </c>
       <c r="T89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,16 +6602,17 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -6403,64 +6624,67 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-200</v>
       </c>
       <c r="W91" s="3">
         <v>-200</v>
       </c>
       <c r="X91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-700</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30500</v>
+        <v>-6400</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-57400</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-26900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="T94" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U94" s="3">
+        <v>600</v>
+      </c>
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="S94" s="3">
-        <v>4200</v>
-      </c>
-      <c r="T94" s="3">
-        <v>600</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8700</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,32 +7270,35 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>97900</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>97900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14500</v>
       </c>
-      <c r="H100" s="3">
-        <v>2000</v>
-      </c>
       <c r="I100" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J100" s="3">
         <v>13800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -7060,11 +7306,11 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7072,58 +7318,61 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>30700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>900</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>2500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>19300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>18400</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -7143,23 +7392,23 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -7178,84 +7427,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-41100</v>
+        <v>-2400</v>
       </c>
       <c r="E102" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>64500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R102" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="T102" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>4700</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="S102" s="3">
-        <v>5200</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>9500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>9600</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
   <si>
     <t>RFL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,28 +789,28 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>1100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1000</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1200</v>
       </c>
       <c r="M8" s="3">
         <v>1200</v>
@@ -818,46 +822,49 @@
         <v>1200</v>
       </c>
       <c r="P8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q8" s="3">
         <v>1400</v>
       </c>
       <c r="R8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1400</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,65 +1059,66 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3300</v>
       </c>
-      <c r="G12" s="3">
-        <v>2200</v>
-      </c>
       <c r="H12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>300</v>
       </c>
       <c r="R12" s="3">
         <v>300</v>
       </c>
       <c r="S12" s="3">
+        <v>300</v>
+      </c>
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1000</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,44 +1223,47 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>79100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>79100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>7700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1279,8 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
@@ -1307,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
       </c>
       <c r="L15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M15" s="3">
         <v>500</v>
@@ -1331,7 +1354,7 @@
         <v>500</v>
       </c>
       <c r="Q15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R15" s="3">
         <v>400</v>
@@ -1358,16 +1381,19 @@
         <v>400</v>
       </c>
       <c r="Z15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA15" s="3">
         <v>800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>400</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E17" s="3">
         <v>4900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>135100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
-        <v>129900</v>
-      </c>
       <c r="H17" s="3">
+        <v>128900</v>
+      </c>
+      <c r="I17" s="3">
         <v>13100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1800</v>
       </c>
       <c r="V17" s="3">
         <v>1800</v>
       </c>
       <c r="W17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1200</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4800</v>
       </c>
-      <c r="E18" s="3">
-        <v>-134200</v>
-      </c>
       <c r="F18" s="3">
+        <v>-134800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-128900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-128700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-12900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1400</v>
       </c>
       <c r="R18" s="3">
         <v>-1400</v>
       </c>
       <c r="S18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>200</v>
       </c>
       <c r="AA18" s="3">
         <v>200</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,197 +1616,204 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>-1400</v>
-      </c>
       <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>500</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>100</v>
       </c>
       <c r="Z20" s="3">
         <v>100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5700</v>
       </c>
-      <c r="E21" s="3">
-        <v>-134500</v>
-      </c>
       <c r="F21" s="3">
+        <v>-134200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-128500</v>
-      </c>
       <c r="H21" s="3">
+        <v>-127800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-11900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-300</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>500</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1799,8 +1839,8 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
@@ -1811,8 +1851,8 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1823,88 +1863,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4600</v>
       </c>
-      <c r="E23" s="3">
-        <v>-135700</v>
-      </c>
       <c r="F23" s="3">
+        <v>-135300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-128800</v>
-      </c>
       <c r="H23" s="3">
+        <v>-128300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-12300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-700</v>
       </c>
       <c r="S23" s="3">
         <v>-700</v>
       </c>
       <c r="T23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-700</v>
       </c>
       <c r="V23" s="3">
         <v>-700</v>
       </c>
       <c r="W23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>100</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1957,20 +2003,20 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-2500</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>8400</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
@@ -1980,11 +2026,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-135700</v>
-      </c>
       <c r="F26" s="3">
+        <v>-135300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
-        <v>-128800</v>
-      </c>
       <c r="H26" s="3">
+        <v>-128300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-12300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-700</v>
       </c>
       <c r="S26" s="3">
         <v>-700</v>
       </c>
       <c r="T26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U26" s="3">
         <v>1100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-700</v>
       </c>
       <c r="V26" s="3">
         <v>-700</v>
       </c>
       <c r="W26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X26" s="3">
         <v>-9300</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>100</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-118600</v>
-      </c>
       <c r="F27" s="3">
+        <v>-118300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-112000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-111500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-12200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-1000</v>
       </c>
       <c r="R27" s="3">
         <v>-1000</v>
       </c>
       <c r="S27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-500</v>
       </c>
       <c r="V27" s="3">
         <v>-500</v>
       </c>
       <c r="W27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X27" s="3">
         <v>-9300</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>100</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,34 +2361,37 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-1600</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1500</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2338,17 +2399,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
@@ -2356,12 +2417,12 @@
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2500</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>1400</v>
-      </c>
       <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-100</v>
       </c>
       <c r="Z32" s="3">
         <v>-100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
-        <v>-120200</v>
-      </c>
       <c r="F33" s="3">
+        <v>-119900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-112000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-1000</v>
       </c>
       <c r="R33" s="3">
         <v>-1000</v>
       </c>
       <c r="S33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-500</v>
       </c>
       <c r="V33" s="3">
         <v>-500</v>
       </c>
       <c r="W33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X33" s="3">
         <v>-9300</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>100</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
-        <v>-120200</v>
-      </c>
       <c r="F35" s="3">
+        <v>-119900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-112000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-1000</v>
       </c>
       <c r="R35" s="3">
         <v>-1000</v>
       </c>
       <c r="S35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-500</v>
       </c>
       <c r="V35" s="3">
         <v>-500</v>
       </c>
       <c r="W35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X35" s="3">
         <v>-9300</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>100</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,74 +3094,75 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E41" s="3">
         <v>26500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>72400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11500</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3088,20 +3175,23 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E42" s="3">
         <v>36700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>30400</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,8 +3207,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3139,17 +3229,17 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>20100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>24700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>30900</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,74 +3258,77 @@
       <c r="AB42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>700</v>
       </c>
       <c r="G43" s="3">
         <v>700</v>
       </c>
       <c r="H43" s="3">
+        <v>700</v>
+      </c>
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>600</v>
       </c>
       <c r="L43" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,46 +3424,49 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>44700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
       <c r="O45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>500</v>
@@ -3376,26 +3475,26 @@
         <v>500</v>
       </c>
       <c r="R45" s="3">
+        <v>500</v>
+      </c>
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,74 +3507,77 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E46" s="3">
         <v>108300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>62500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>71500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>78500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>44500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>44200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12000</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3488,74 +3590,77 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="E47" s="3">
         <v>5200</v>
       </c>
       <c r="F47" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G47" s="3">
         <v>5500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>93000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>93500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>92700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>79100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>78900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>77400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>77700</v>
-      </c>
-      <c r="O47" s="3">
-        <v>77100</v>
       </c>
       <c r="P47" s="3">
         <v>77100</v>
       </c>
       <c r="Q47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="R47" s="3">
         <v>76700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>76200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>29600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>19500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>17600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>11700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>13000</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3577,64 +3685,64 @@
         <v>1800</v>
       </c>
       <c r="E48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="3">
         <v>42200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>42500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>42900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>43200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>43600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>43800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>47800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>48300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>48600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>48700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>49200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>49400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>49700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>50100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>50600</v>
-      </c>
-      <c r="V48" s="3">
-        <v>51000</v>
       </c>
       <c r="W48" s="3">
         <v>51000</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
+      <c r="X48" s="3">
+        <v>51000</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3693,7 +3804,7 @@
         <v>1600</v>
       </c>
       <c r="Q49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="R49" s="3">
         <v>1700</v>
@@ -3705,14 +3816,14 @@
         <v>1700</v>
       </c>
       <c r="U49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V49" s="3">
         <v>1800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1700</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,13 +4005,16 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>1400</v>
@@ -3903,7 +4023,7 @@
         <v>1400</v>
       </c>
       <c r="G52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H52" s="3">
         <v>1500</v>
@@ -3915,13 +4035,13 @@
         <v>1500</v>
       </c>
       <c r="K52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="L52" s="3">
         <v>1600</v>
       </c>
       <c r="M52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N52" s="3">
         <v>1500</v>
@@ -3930,10 +4050,10 @@
         <v>1500</v>
       </c>
       <c r="P52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1200</v>
       </c>
       <c r="R52" s="3">
         <v>1200</v>
@@ -3942,20 +4062,20 @@
         <v>1200</v>
       </c>
       <c r="T52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U52" s="3">
         <v>1100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>700</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,74 +4171,77 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>103200</v>
+      </c>
+      <c r="E54" s="3">
         <v>118300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>112800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>122600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>130400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>154100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>146200</v>
       </c>
       <c r="J54" s="3">
         <v>146200</v>
       </c>
       <c r="K54" s="3">
+        <v>146200</v>
+      </c>
+      <c r="L54" s="3">
         <v>134600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>136300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>137400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>139200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>140400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>142100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>143500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>144200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>116600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>116900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>115100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>77600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>76600</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,73 +4318,74 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1200</v>
       </c>
       <c r="G57" s="3">
         <v>1200</v>
       </c>
       <c r="H57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>600</v>
       </c>
       <c r="P57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>800</v>
       </c>
       <c r="R57" s="3">
+        <v>800</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
+      <c r="X57" s="3">
+        <v>100</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
@@ -4268,29 +4399,32 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>15000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4306,8 +4440,8 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4348,43 +4482,46 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
@@ -4393,29 +4530,29 @@
         <v>600</v>
       </c>
       <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4428,74 +4565,77 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>21000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>17300</v>
       </c>
       <c r="H60" s="3">
         <v>17300</v>
       </c>
       <c r="I60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1200</v>
       </c>
       <c r="O60" s="3">
         <v>1200</v>
       </c>
       <c r="P60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4550,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>14900</v>
@@ -4559,7 +4702,7 @@
         <v>14900</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -4588,13 +4731,16 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -4606,7 +4752,7 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4618,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -4627,35 +4773,35 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>500</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="3">
         <v>24500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>23500</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,74 +5063,77 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
         <v>17800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>15200</v>
       </c>
       <c r="O66" s="3">
         <v>15200</v>
       </c>
       <c r="P66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>31200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>25500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>10200</v>
       </c>
       <c r="T66" s="3">
         <v>10200</v>
       </c>
       <c r="U66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="V66" s="3">
         <v>9600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>34700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33200</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,68 +5509,71 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-163900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-165500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-160700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-155100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-170100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-40800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,74 +5841,77 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E76" s="3">
         <v>100500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>98100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>102900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>98700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>122300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>126800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>120800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>115600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>116800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>122100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>124100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>125200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>111000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>118000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>118800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>106400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>106700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>105400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>42900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>43400</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
-        <v>-120200</v>
-      </c>
       <c r="F81" s="3">
+        <v>-119900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-112000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-1000</v>
       </c>
       <c r="R81" s="3">
         <v>-1000</v>
       </c>
       <c r="S81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-500</v>
       </c>
       <c r="V81" s="3">
         <v>-500</v>
       </c>
       <c r="W81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X81" s="3">
         <v>-9300</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>100</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,19 +6211,20 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>-1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -6034,16 +6233,16 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>1100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
       </c>
       <c r="L83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
@@ -6058,7 +6257,7 @@
         <v>500</v>
       </c>
       <c r="Q83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R83" s="3">
         <v>400</v>
@@ -6085,16 +6284,19 @@
         <v>400</v>
       </c>
       <c r="Z83" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA83" s="3">
         <v>800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>400</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-700</v>
       </c>
       <c r="T89" s="3">
         <v>-700</v>
       </c>
       <c r="U89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,20 +6823,21 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -6624,67 +6845,70 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-500</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-200</v>
       </c>
       <c r="X91" s="3">
         <v>-200</v>
       </c>
       <c r="Y91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-700</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-57400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-26900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>4200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-8700</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,35 +7516,38 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E100" s="3">
         <v>6000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>97900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>97900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>15800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -7309,11 +7555,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -7321,40 +7567,43 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>30700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>900</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>2500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>19300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>18400</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7362,20 +7611,20 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -7395,23 +7644,23 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
@@ -7430,87 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>64500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>9500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>9600</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,28 +796,28 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
-        <v>1100</v>
-      </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1200</v>
       </c>
       <c r="N8" s="3">
         <v>1200</v>
@@ -825,46 +829,49 @@
         <v>1200</v>
       </c>
       <c r="Q8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="R8" s="3">
         <v>1400</v>
       </c>
       <c r="S8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T8" s="3">
         <v>1000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1400</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,68 +1073,69 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>2100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>100</v>
-      </c>
-      <c r="R12" s="3">
-        <v>300</v>
       </c>
       <c r="S12" s="3">
         <v>300</v>
       </c>
       <c r="T12" s="3">
+        <v>300</v>
+      </c>
+      <c r="U12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1000</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,47 +1243,50 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>79100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>79100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>7700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1282,8 +1302,8 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1321,11 +1344,11 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>400</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1333,16 +1356,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>400</v>
       </c>
       <c r="L15" s="3">
         <v>400</v>
       </c>
       <c r="M15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>500</v>
@@ -1357,7 +1380,7 @@
         <v>500</v>
       </c>
       <c r="R15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S15" s="3">
         <v>400</v>
@@ -1384,16 +1407,19 @@
         <v>400</v>
       </c>
       <c r="AA15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB15" s="3">
         <v>800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>400</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>5400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>135100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>128900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>16600</v>
+      </c>
+      <c r="L17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="M17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
-        <v>128900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>13100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>16600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>11800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>4300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3100</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
-        <v>4200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2800</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1800</v>
       </c>
       <c r="W17" s="3">
         <v>1800</v>
       </c>
       <c r="X17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y17" s="3">
         <v>2200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1200</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-134800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1700</v>
-      </c>
       <c r="H18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-128700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-1400</v>
       </c>
       <c r="S18" s="3">
         <v>-1400</v>
       </c>
       <c r="T18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>200</v>
       </c>
       <c r="AB18" s="3">
         <v>200</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,182 +1650,189 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-800</v>
-      </c>
       <c r="H20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
-      </c>
-      <c r="V20" s="3">
-        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
       </c>
       <c r="X20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>100</v>
       </c>
       <c r="AA20" s="3">
         <v>100</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-134200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I21" s="3">
         <v>-127800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-300</v>
       </c>
       <c r="T21" s="3">
         <v>-300</v>
       </c>
       <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>500</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1803,20 +1843,20 @@
       <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1842,8 +1882,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
@@ -1854,8 +1894,8 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1866,91 +1906,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-135300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-128300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-700</v>
       </c>
       <c r="T23" s="3">
         <v>-700</v>
       </c>
       <c r="U23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-700</v>
       </c>
       <c r="W23" s="3">
         <v>-700</v>
       </c>
       <c r="X23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>100</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2006,20 +2052,20 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-2500</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>8400</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
@@ -2029,11 +2075,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-135300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-128300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-700</v>
       </c>
       <c r="T26" s="3">
         <v>-700</v>
       </c>
       <c r="U26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V26" s="3">
         <v>1100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-700</v>
       </c>
       <c r="W26" s="3">
         <v>-700</v>
       </c>
       <c r="X26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-9300</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
       <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>100</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-118300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-111500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-1000</v>
       </c>
       <c r="S27" s="3">
         <v>-1000</v>
       </c>
       <c r="T27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1300</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-500</v>
       </c>
       <c r="W27" s="3">
         <v>-500</v>
       </c>
       <c r="X27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-9300</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>100</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,37 +2422,40 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E29" s="3">
         <v>6700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H29" s="3">
         <v>-500</v>
       </c>
       <c r="I29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1500</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2402,17 +2463,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
@@ -2420,12 +2481,12 @@
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2500</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
-        <v>800</v>
-      </c>
       <c r="H32" s="3">
+        <v>400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
       </c>
       <c r="X32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-100</v>
       </c>
       <c r="AA32" s="3">
         <v>-100</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-119900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-112000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-1000</v>
       </c>
       <c r="S33" s="3">
         <v>-1000</v>
       </c>
       <c r="T33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-500</v>
       </c>
       <c r="W33" s="3">
         <v>-500</v>
       </c>
       <c r="X33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-9300</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>100</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-119900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-112000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-1000</v>
       </c>
       <c r="S35" s="3">
         <v>-1000</v>
       </c>
       <c r="T35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-500</v>
       </c>
       <c r="W35" s="3">
         <v>-500</v>
       </c>
       <c r="X35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-9300</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>100</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
-      <c r="AC38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,77 +3181,78 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E41" s="3">
         <v>22200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>65000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>72400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11500</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,23 +3265,26 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E42" s="3">
         <v>71000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>36700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>30400</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,8 +3300,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -3232,17 +3322,17 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>20100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>24700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>30900</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3261,77 +3351,80 @@
       <c r="AC42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>700</v>
       </c>
       <c r="H43" s="3">
         <v>700</v>
       </c>
       <c r="I43" s="3">
+        <v>700</v>
+      </c>
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>600</v>
       </c>
       <c r="L43" s="3">
         <v>600</v>
       </c>
       <c r="M43" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
       </c>
       <c r="O43" s="3">
+        <v>400</v>
+      </c>
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,49 +3523,52 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
       </c>
       <c r="P45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q45" s="3">
         <v>500</v>
@@ -3478,26 +3577,26 @@
         <v>500</v>
       </c>
       <c r="S45" s="3">
+        <v>500</v>
+      </c>
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3510,77 +3609,80 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E46" s="3">
         <v>94900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>108300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>62500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>71500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>78500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>44500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>44200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12000</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3593,77 +3695,80 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E47" s="3">
         <v>5000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>5200</v>
       </c>
       <c r="F47" s="3">
         <v>5200</v>
       </c>
       <c r="G47" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H47" s="3">
         <v>5500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>93000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>93500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>92700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>79100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>78900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>77400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>77700</v>
-      </c>
-      <c r="P47" s="3">
-        <v>77100</v>
       </c>
       <c r="Q47" s="3">
         <v>77100</v>
       </c>
       <c r="R47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="S47" s="3">
         <v>76700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>76200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>29600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>19500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>17600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>11700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>13000</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3676,76 +3781,79 @@
       <c r="AC47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E48" s="3">
         <v>1800</v>
       </c>
       <c r="F48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G48" s="3">
         <v>42200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>42500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>42900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>43200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>43600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>47800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>48300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>48600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>48700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>49200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>49400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>49700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>50100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>50600</v>
-      </c>
-      <c r="W48" s="3">
-        <v>51000</v>
       </c>
       <c r="X48" s="3">
         <v>51000</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
+      <c r="Y48" s="3">
+        <v>51000</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3807,7 +3918,7 @@
         <v>1600</v>
       </c>
       <c r="R49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="S49" s="3">
         <v>1700</v>
@@ -3819,14 +3930,14 @@
         <v>1700</v>
       </c>
       <c r="V49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W49" s="3">
         <v>1800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1700</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4017,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>1400</v>
@@ -4026,7 +4146,7 @@
         <v>1400</v>
       </c>
       <c r="H52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I52" s="3">
         <v>1500</v>
@@ -4038,13 +4158,13 @@
         <v>1500</v>
       </c>
       <c r="L52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M52" s="3">
         <v>1600</v>
       </c>
       <c r="N52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="O52" s="3">
         <v>1500</v>
@@ -4053,10 +4173,10 @@
         <v>1500</v>
       </c>
       <c r="Q52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R52" s="3">
         <v>1400</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1200</v>
       </c>
       <c r="S52" s="3">
         <v>1200</v>
@@ -4065,20 +4185,20 @@
         <v>1200</v>
       </c>
       <c r="U52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V52" s="3">
         <v>1100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>700</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,77 +4297,80 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E54" s="3">
         <v>103200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>112800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>122600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>130400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>154100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>146200</v>
       </c>
       <c r="K54" s="3">
         <v>146200</v>
       </c>
       <c r="L54" s="3">
+        <v>146200</v>
+      </c>
+      <c r="M54" s="3">
         <v>134600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>136300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>137400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>139200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>140400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>142100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>143500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>144200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>116600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>116900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>115100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>77600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>76600</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,76 +4449,77 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1200</v>
       </c>
       <c r="H57" s="3">
         <v>1200</v>
       </c>
       <c r="I57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
       </c>
       <c r="Q57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>800</v>
       </c>
       <c r="S57" s="3">
+        <v>800</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
+      <c r="Y57" s="3">
+        <v>100</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
@@ -4402,8 +4533,11 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4411,23 +4545,23 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>15000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4443,8 +4577,8 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4485,46 +4619,49 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
@@ -4533,29 +4670,29 @@
         <v>600</v>
       </c>
       <c r="R59" s="3">
+        <v>600</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4568,77 +4705,80 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>17300</v>
       </c>
       <c r="I60" s="3">
         <v>17300</v>
       </c>
       <c r="J60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1200</v>
       </c>
       <c r="P60" s="3">
         <v>1200</v>
       </c>
       <c r="Q60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4651,8 +4791,11 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4696,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>14900</v>
@@ -4705,7 +4848,7 @@
         <v>14900</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4743,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -4755,7 +4901,7 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4767,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -4776,35 +4922,35 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>500</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X62" s="3">
         <v>24500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>23500</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,77 +5221,80 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="3">
         <v>17800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>15200</v>
       </c>
       <c r="P66" s="3">
         <v>15200</v>
       </c>
       <c r="Q66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="R66" s="3">
         <v>31200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>10200</v>
       </c>
       <c r="U66" s="3">
         <v>10200</v>
       </c>
       <c r="V66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="W66" s="3">
         <v>9600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>34700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>33200</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,71 +5683,74 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-167100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-163900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-165500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-160700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-155100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-170100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-40800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-28400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,77 +6027,80 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E76" s="3">
         <v>103400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>100500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>102900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>98700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>122300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>126800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>120800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>115600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>116800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>122100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>124100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>125200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>111000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>118000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>118800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>106400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>106700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>105400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>42900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>43400</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
-      <c r="AC80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-119900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-112000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-1000</v>
       </c>
       <c r="S81" s="3">
         <v>-1000</v>
       </c>
       <c r="T81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-500</v>
       </c>
       <c r="W81" s="3">
         <v>-500</v>
       </c>
       <c r="X81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-9300</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>100</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6221,13 +6420,13 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>-1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -6236,16 +6435,16 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
       </c>
       <c r="M83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
@@ -6260,7 +6459,7 @@
         <v>500</v>
       </c>
       <c r="R83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S83" s="3">
         <v>400</v>
@@ -6287,16 +6486,19 @@
         <v>400</v>
       </c>
       <c r="AA83" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB83" s="3">
         <v>800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>400</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-700</v>
       </c>
       <c r="U89" s="3">
         <v>-700</v>
       </c>
       <c r="V89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W89" s="3">
         <v>-1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,19 +7044,20 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6848,67 +7069,70 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-500</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-200</v>
       </c>
       <c r="Y91" s="3">
         <v>-200</v>
       </c>
       <c r="Z91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-700</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
         <v>13900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-57400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-26900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>4200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-8700</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,38 +7762,41 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>97900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>97900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>15800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7558,11 +7804,11 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7570,64 +7816,67 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>30700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>900</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>2500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>19300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>18400</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -7647,23 +7896,23 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
@@ -7682,90 +7931,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>64500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>9500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>9600</v>
       </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
   <si>
     <t>RFL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,130 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
-      <c r="AD7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,28 +802,28 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1200</v>
       </c>
       <c r="O8" s="3">
         <v>1200</v>
@@ -832,46 +835,49 @@
         <v>1200</v>
       </c>
       <c r="R8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="S8" s="3">
         <v>1400</v>
       </c>
       <c r="T8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U8" s="3">
         <v>1000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1400</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -956,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,71 +1086,72 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
-        <v>6900</v>
-      </c>
       <c r="H12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I12" s="3">
         <v>3300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
-      </c>
-      <c r="S12" s="3">
-        <v>300</v>
       </c>
       <c r="T12" s="3">
         <v>300</v>
       </c>
       <c r="U12" s="3">
+        <v>300</v>
+      </c>
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1000</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1160,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1255,41 +1274,41 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>79100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>79100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>7700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1324,8 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1332,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1347,28 +1369,28 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>400</v>
       </c>
       <c r="M15" s="3">
         <v>400</v>
       </c>
       <c r="N15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O15" s="3">
         <v>500</v>
@@ -1383,7 +1405,7 @@
         <v>500</v>
       </c>
       <c r="S15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T15" s="3">
         <v>400</v>
@@ -1410,16 +1432,19 @@
         <v>400</v>
       </c>
       <c r="AB15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC15" s="3">
         <v>800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>400</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4900</v>
       </c>
-      <c r="G17" s="3">
-        <v>135100</v>
-      </c>
       <c r="H17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>128900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1800</v>
       </c>
       <c r="X17" s="3">
         <v>1800</v>
       </c>
       <c r="Y17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z17" s="3">
         <v>2200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1200</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-134800</v>
-      </c>
       <c r="H18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-128700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-1400</v>
       </c>
       <c r="T18" s="3">
         <v>-1400</v>
       </c>
       <c r="U18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>200</v>
       </c>
       <c r="AC18" s="3">
         <v>200</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,215 +1683,222 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>-500</v>
-      </c>
       <c r="H20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>100</v>
       </c>
       <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>100</v>
       </c>
       <c r="AB20" s="3">
         <v>100</v>
       </c>
       <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-134200</v>
-      </c>
       <c r="H21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-127800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-300</v>
       </c>
       <c r="U21" s="3">
         <v>-300</v>
       </c>
       <c r="V21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>500</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1885,8 +1924,8 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
@@ -1897,8 +1936,8 @@
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -1909,99 +1948,105 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-135300</v>
-      </c>
       <c r="H23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-128300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-700</v>
       </c>
       <c r="U23" s="3">
         <v>-700</v>
       </c>
       <c r="V23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-700</v>
       </c>
       <c r="X23" s="3">
         <v>-700</v>
       </c>
       <c r="Y23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>100</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2055,20 +2100,20 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-2500</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>8400</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
@@ -2078,11 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="G26" s="3">
-        <v>-135300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-128300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-700</v>
       </c>
       <c r="U26" s="3">
         <v>-700</v>
       </c>
       <c r="V26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W26" s="3">
         <v>1100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-700</v>
       </c>
       <c r="X26" s="3">
         <v>-700</v>
       </c>
       <c r="Y26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-9300</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
       </c>
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
       <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>100</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-118300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-111500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-1000</v>
       </c>
       <c r="T27" s="3">
         <v>-1000</v>
       </c>
       <c r="U27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1300</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-500</v>
       </c>
       <c r="X27" s="3">
         <v>-500</v>
       </c>
       <c r="Y27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-9300</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
       </c>
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
       <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>100</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,40 +2482,43 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>6700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="G29" s="3">
-        <v>-1600</v>
-      </c>
       <c r="H29" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I29" s="3">
         <v>-500</v>
       </c>
       <c r="J29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1500</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2466,17 +2526,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
@@ -2484,12 +2544,12 @@
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2500</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2511,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>500</v>
-      </c>
       <c r="H32" s="3">
+        <v>300</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>-100</v>
       </c>
       <c r="Y32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-100</v>
       </c>
       <c r="AB32" s="3">
         <v>-100</v>
       </c>
       <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
-        <v>-119900</v>
-      </c>
       <c r="H33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-112000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-1000</v>
       </c>
       <c r="T33" s="3">
         <v>-1000</v>
       </c>
       <c r="U33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-500</v>
       </c>
       <c r="X33" s="3">
         <v>-500</v>
       </c>
       <c r="Y33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-9300</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
       </c>
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
       <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>100</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
-        <v>-119900</v>
-      </c>
       <c r="H35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-112000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-1000</v>
       </c>
       <c r="T35" s="3">
         <v>-1000</v>
       </c>
       <c r="U35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-500</v>
       </c>
       <c r="X35" s="3">
         <v>-500</v>
       </c>
       <c r="Y35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-9300</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
       </c>
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
       <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>100</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
-      <c r="AD38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,80 +3267,81 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E41" s="3">
         <v>9700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>65000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>72400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11500</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3268,26 +3354,29 @@
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E42" s="3">
         <v>79200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>71000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>36700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>30400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3303,8 +3392,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -3325,17 +3414,17 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>20100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>24700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>30900</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,80 +3443,83 @@
       <c r="AD42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>700</v>
       </c>
       <c r="I43" s="3">
         <v>700</v>
       </c>
       <c r="J43" s="3">
+        <v>700</v>
+      </c>
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>600</v>
       </c>
       <c r="M43" s="3">
         <v>600</v>
       </c>
       <c r="N43" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O43" s="3">
         <v>400</v>
       </c>
       <c r="P43" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>400</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3440,8 +3532,11 @@
       <c r="AD43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,52 +3621,55 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
       </c>
       <c r="Q45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="R45" s="3">
         <v>500</v>
@@ -3580,26 +3678,26 @@
         <v>500</v>
       </c>
       <c r="T45" s="3">
+        <v>500</v>
+      </c>
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,80 +3710,83 @@
       <c r="AD45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E46" s="3">
         <v>90000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>94900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>108300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>62500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>71500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>78500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>34400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>44500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>44200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>12000</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3698,80 +3799,83 @@
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>5200</v>
       </c>
       <c r="G47" s="3">
         <v>5200</v>
       </c>
       <c r="H47" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I47" s="3">
         <v>5500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>93000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>93500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>92700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>79100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>78900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>77400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>77700</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>77100</v>
       </c>
       <c r="R47" s="3">
         <v>77100</v>
       </c>
       <c r="S47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="T47" s="3">
         <v>76700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>76200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>29600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>19500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>17600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>11700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>13000</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3784,8 +3888,11 @@
       <c r="AD47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3793,70 +3900,70 @@
         <v>1700</v>
       </c>
       <c r="E48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F48" s="3">
         <v>1800</v>
       </c>
       <c r="G48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H48" s="3">
         <v>42200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>42500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>42900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>43200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>44400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>47800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>48300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>48600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>48700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>49200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>49400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>49700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>50100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>50600</v>
-      </c>
-      <c r="X48" s="3">
-        <v>51000</v>
       </c>
       <c r="Y48" s="3">
         <v>51000</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>3</v>
+      <c r="Z48" s="3">
+        <v>51000</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>3</v>
@@ -3870,8 +3977,11 @@
       <c r="AD48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3921,7 +4031,7 @@
         <v>1600</v>
       </c>
       <c r="S49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="T49" s="3">
         <v>1700</v>
@@ -3933,14 +4043,14 @@
         <v>1700</v>
       </c>
       <c r="W49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X49" s="3">
         <v>1800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1700</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3956,8 +4066,11 @@
       <c r="AD49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4140,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>1400</v>
@@ -4149,7 +4268,7 @@
         <v>1400</v>
       </c>
       <c r="I52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J52" s="3">
         <v>1500</v>
@@ -4161,13 +4280,13 @@
         <v>1500</v>
       </c>
       <c r="M52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="N52" s="3">
         <v>1600</v>
       </c>
       <c r="O52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="P52" s="3">
         <v>1500</v>
@@ -4176,10 +4295,10 @@
         <v>1500</v>
       </c>
       <c r="R52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S52" s="3">
         <v>1400</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1200</v>
       </c>
       <c r="T52" s="3">
         <v>1200</v>
@@ -4188,20 +4307,20 @@
         <v>1200</v>
       </c>
       <c r="V52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W52" s="3">
         <v>1100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>700</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4214,8 +4333,11 @@
       <c r="AD52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,80 +4422,83 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E54" s="3">
         <v>98600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>103200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>112800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>122600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>130400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>154100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>146200</v>
       </c>
       <c r="L54" s="3">
         <v>146200</v>
       </c>
       <c r="M54" s="3">
+        <v>146200</v>
+      </c>
+      <c r="N54" s="3">
         <v>134600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>136300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>137400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>139200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>140400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>142100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>143500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>144200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>116600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>116900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>115100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>77600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>76600</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4386,8 +4511,11 @@
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,79 +4579,80 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1200</v>
       </c>
       <c r="I57" s="3">
         <v>1200</v>
       </c>
       <c r="J57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
       </c>
       <c r="R57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="S57" s="3">
         <v>800</v>
       </c>
       <c r="T57" s="3">
+        <v>800</v>
+      </c>
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>400</v>
       </c>
       <c r="W57" s="3">
         <v>400</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>3</v>
+      <c r="Z57" s="3">
+        <v>100</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>3</v>
@@ -4536,8 +4666,11 @@
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4548,23 +4681,23 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>15000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4580,8 +4713,8 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4622,49 +4755,52 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
@@ -4673,29 +4809,29 @@
         <v>600</v>
       </c>
       <c r="S59" s="3">
+        <v>600</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4708,80 +4844,83 @@
       <c r="AD59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>17300</v>
       </c>
       <c r="J60" s="3">
         <v>17300</v>
       </c>
       <c r="K60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1200</v>
       </c>
       <c r="Q60" s="3">
         <v>1200</v>
       </c>
       <c r="R60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4933,11 @@
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4842,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>14900</v>
@@ -4851,7 +4993,7 @@
         <v>14900</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -4880,19 +5022,22 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -4904,7 +5049,7 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4916,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -4925,35 +5070,35 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>500</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y62" s="3">
         <v>24500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>23500</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4966,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5235,69 +5392,69 @@
       <c r="E66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3">
         <v>17800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>15200</v>
       </c>
       <c r="Q66" s="3">
         <v>15200</v>
       </c>
       <c r="R66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="S66" s="3">
         <v>31200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>10200</v>
       </c>
       <c r="V66" s="3">
         <v>10200</v>
       </c>
       <c r="W66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="X66" s="3">
         <v>9600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>34700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>33200</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5310,8 +5467,11 @@
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,74 +5856,77 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-168600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-167100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-163900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-165500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-160700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-155100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-170100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-40800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-28400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-200</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5772,8 +5945,11 @@
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,80 +6212,83 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E76" s="3">
         <v>100100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>103400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>100500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>98100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>102900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>98700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>122300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>126800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>120800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>115600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>116800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>122100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>124100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>125200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>111000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>118000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>118800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>106400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>106700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>105400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>42900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>43400</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6116,8 +6301,11 @@
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
-      <c r="AD80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
-        <v>-119900</v>
-      </c>
       <c r="H81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-112000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-1000</v>
       </c>
       <c r="T81" s="3">
         <v>-1000</v>
       </c>
       <c r="U81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-500</v>
       </c>
       <c r="X81" s="3">
         <v>-500</v>
       </c>
       <c r="Y81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-9300</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
       </c>
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
       <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>100</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6423,10 +6621,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1100</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -6438,16 +6636,16 @@
         <v>400</v>
       </c>
       <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
         <v>1100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
       </c>
       <c r="N83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>500</v>
@@ -6462,7 +6660,7 @@
         <v>500</v>
       </c>
       <c r="S83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T83" s="3">
         <v>400</v>
@@ -6489,16 +6687,19 @@
         <v>400</v>
       </c>
       <c r="AB83" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC83" s="3">
         <v>800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>400</v>
       </c>
-      <c r="AD83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
-        <v>-24200</v>
-      </c>
       <c r="H89" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-7300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-700</v>
       </c>
       <c r="V89" s="3">
         <v>-700</v>
       </c>
       <c r="W89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
-      <c r="AD89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7072,67 +7292,70 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-200</v>
       </c>
       <c r="Z91" s="3">
         <v>-200</v>
       </c>
       <c r="AA91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-700</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>13900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6400</v>
       </c>
-      <c r="G94" s="3">
-        <v>-57400</v>
-      </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-30500</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-26900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>4200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-8700</v>
       </c>
-      <c r="AD94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,41 +8007,44 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>97900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>97900</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>15800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -7807,11 +8052,11 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -7819,67 +8064,70 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>30700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>900</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>2500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>19300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>18400</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -7899,23 +8147,23 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
@@ -7934,93 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-      <c r="AD101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
-        <v>16100</v>
-      </c>
       <c r="H102" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-7400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>64500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>9500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>9600</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>RFL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
-      <c r="AE7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,22 +815,22 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1200</v>
       </c>
       <c r="P8" s="3">
         <v>1200</v>
@@ -838,46 +842,49 @@
         <v>1200</v>
       </c>
       <c r="S8" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T8" s="3">
         <v>1400</v>
       </c>
       <c r="U8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V8" s="3">
         <v>1000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1400</v>
       </c>
-      <c r="AE8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,74 +1100,75 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>100</v>
-      </c>
-      <c r="T12" s="3">
-        <v>300</v>
       </c>
       <c r="U12" s="3">
         <v>300</v>
       </c>
       <c r="V12" s="3">
+        <v>300</v>
+      </c>
+      <c r="W12" s="3">
         <v>400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1000</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,23 +1282,26 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
       </c>
       <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1289,29 +1309,29 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>79100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>7700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1327,8 +1347,8 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1384,16 +1407,16 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
       </c>
       <c r="O15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P15" s="3">
         <v>500</v>
@@ -1408,7 +1431,7 @@
         <v>500</v>
       </c>
       <c r="T15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U15" s="3">
         <v>400</v>
@@ -1435,16 +1458,19 @@
         <v>400</v>
       </c>
       <c r="AC15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD15" s="3">
         <v>800</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>400</v>
       </c>
-      <c r="AE15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>128900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2500</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1800</v>
       </c>
       <c r="Y17" s="3">
         <v>1800</v>
       </c>
       <c r="Z17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AA17" s="3">
         <v>2200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1200</v>
       </c>
-      <c r="AE17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-128700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-1400</v>
       </c>
       <c r="U18" s="3">
         <v>-1400</v>
       </c>
       <c r="V18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>200</v>
       </c>
       <c r="AD18" s="3">
         <v>200</v>
       </c>
-      <c r="AE18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,224 +1717,231 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
-      </c>
-      <c r="X20" s="3">
-        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>100</v>
       </c>
       <c r="Z20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>100</v>
       </c>
       <c r="AC20" s="3">
         <v>100</v>
       </c>
       <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-127800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-300</v>
       </c>
       <c r="V21" s="3">
         <v>-300</v>
       </c>
       <c r="W21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>500</v>
       </c>
-      <c r="AE21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>100</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1927,8 +1967,8 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>3</v>
@@ -1939,8 +1979,8 @@
       <c r="AA22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
+      <c r="AB22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AC22" s="3">
         <v>0</v>
@@ -1951,106 +1991,112 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-128300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-700</v>
       </c>
       <c r="V23" s="3">
         <v>-700</v>
       </c>
       <c r="W23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-700</v>
       </c>
       <c r="Y23" s="3">
         <v>-700</v>
       </c>
       <c r="Z23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>100</v>
       </c>
-      <c r="AE23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -2103,20 +2149,20 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-2500</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>8400</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
@@ -2126,11 +2172,14 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-      <c r="AE24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-128300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-700</v>
       </c>
       <c r="V26" s="3">
         <v>-700</v>
       </c>
       <c r="W26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X26" s="3">
         <v>1100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-700</v>
       </c>
       <c r="Y26" s="3">
         <v>-700</v>
       </c>
       <c r="Z26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-9300</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-100</v>
       </c>
       <c r="AB26" s="3">
         <v>-100</v>
       </c>
       <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>100</v>
       </c>
-      <c r="AE26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-111500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-1000</v>
       </c>
       <c r="U27" s="3">
         <v>-1000</v>
       </c>
       <c r="V27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1300</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-500</v>
       </c>
       <c r="Y27" s="3">
         <v>-500</v>
       </c>
       <c r="Z27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-9300</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-100</v>
       </c>
       <c r="AB27" s="3">
         <v>-100</v>
       </c>
       <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>100</v>
       </c>
-      <c r="AE27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,43 +2543,46 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>6700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-600</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-500</v>
       </c>
       <c r="J29" s="3">
         <v>-500</v>
       </c>
       <c r="K29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1500</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2529,17 +2590,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
@@ -2547,12 +2608,12 @@
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="3">
         <v>-2500</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>-100</v>
       </c>
       <c r="AC32" s="3">
         <v>-100</v>
       </c>
       <c r="AD32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-112000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-1000</v>
       </c>
       <c r="U33" s="3">
         <v>-1000</v>
       </c>
       <c r="V33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-500</v>
       </c>
       <c r="Y33" s="3">
         <v>-500</v>
       </c>
       <c r="Z33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-9300</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-100</v>
       </c>
       <c r="AB33" s="3">
         <v>-100</v>
       </c>
       <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>100</v>
       </c>
-      <c r="AE33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-112000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-1000</v>
       </c>
       <c r="U35" s="3">
         <v>-1000</v>
       </c>
       <c r="V35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-500</v>
       </c>
       <c r="Y35" s="3">
         <v>-500</v>
       </c>
       <c r="Z35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-9300</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-100</v>
       </c>
       <c r="AB35" s="3">
         <v>-100</v>
       </c>
       <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>100</v>
       </c>
-      <c r="AE35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
-      <c r="AE38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,83 +3354,84 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E41" s="3">
         <v>15400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>65000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>72400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11500</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3357,29 +3444,32 @@
       <c r="AE41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E42" s="3">
         <v>67000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>79200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>71000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>36700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>30400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3395,8 +3485,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -3417,17 +3507,17 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>20100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>24700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>30900</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,74 +3548,74 @@
         <v>2500</v>
       </c>
       <c r="E43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>700</v>
       </c>
       <c r="J43" s="3">
         <v>700</v>
       </c>
       <c r="K43" s="3">
+        <v>700</v>
+      </c>
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
-      </c>
-      <c r="M43" s="3">
-        <v>600</v>
       </c>
       <c r="N43" s="3">
         <v>600</v>
       </c>
       <c r="O43" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="P43" s="3">
         <v>400</v>
       </c>
       <c r="Q43" s="3">
+        <v>400</v>
+      </c>
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>400</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,55 +3720,58 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>300</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
       </c>
       <c r="R45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S45" s="3">
         <v>500</v>
@@ -3681,26 +3780,26 @@
         <v>500</v>
       </c>
       <c r="U45" s="3">
+        <v>500</v>
+      </c>
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3713,83 +3812,86 @@
       <c r="AE45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E46" s="3">
         <v>85000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>90000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>94900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>108300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>62500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>71500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>78500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>34400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>44500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>44200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>12400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>12000</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3802,83 +3904,86 @@
       <c r="AE46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E47" s="3">
         <v>8000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>5200</v>
       </c>
       <c r="H47" s="3">
         <v>5200</v>
       </c>
       <c r="I47" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J47" s="3">
         <v>5500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>93000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>93500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>92700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>79100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>78900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>77400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>77700</v>
-      </c>
-      <c r="R47" s="3">
-        <v>77100</v>
       </c>
       <c r="S47" s="3">
         <v>77100</v>
       </c>
       <c r="T47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="U47" s="3">
         <v>76700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>76200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>29600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>19500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>17600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>11700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>13000</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3903,70 +4011,70 @@
         <v>1700</v>
       </c>
       <c r="F48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G48" s="3">
         <v>1800</v>
       </c>
       <c r="H48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I48" s="3">
         <v>42200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>42500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>42900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>44100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>44400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>47800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>48300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>48600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>48700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>49200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>49400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>49700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>50100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>50600</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>51000</v>
       </c>
       <c r="Z48" s="3">
         <v>51000</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>3</v>
+      <c r="AA48" s="3">
+        <v>51000</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>3</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4034,7 +4145,7 @@
         <v>1600</v>
       </c>
       <c r="T49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="U49" s="3">
         <v>1700</v>
@@ -4046,14 +4157,14 @@
         <v>1700</v>
       </c>
       <c r="X49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y49" s="3">
         <v>1800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1700</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4262,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>1400</v>
@@ -4271,7 +4391,7 @@
         <v>1400</v>
       </c>
       <c r="J52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K52" s="3">
         <v>1500</v>
@@ -4283,13 +4403,13 @@
         <v>1500</v>
       </c>
       <c r="N52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="O52" s="3">
         <v>1600</v>
       </c>
       <c r="P52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q52" s="3">
         <v>1500</v>
@@ -4298,10 +4418,10 @@
         <v>1500</v>
       </c>
       <c r="S52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T52" s="3">
         <v>1400</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1200</v>
       </c>
       <c r="U52" s="3">
         <v>1200</v>
@@ -4310,20 +4430,20 @@
         <v>1200</v>
       </c>
       <c r="W52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X52" s="3">
         <v>1100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>700</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,83 +4548,86 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E54" s="3">
         <v>96400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>98600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>103200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>112800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>122600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>130400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>154100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>146200</v>
       </c>
       <c r="M54" s="3">
         <v>146200</v>
       </c>
       <c r="N54" s="3">
+        <v>146200</v>
+      </c>
+      <c r="O54" s="3">
         <v>134600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>136300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>137400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>139200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>140400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>142100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>143500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>144200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>116600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>116900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>115100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>77600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>76600</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,82 +4710,83 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1200</v>
       </c>
       <c r="J57" s="3">
         <v>1200</v>
       </c>
       <c r="K57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T57" s="3">
         <v>800</v>
       </c>
       <c r="U57" s="3">
+        <v>800</v>
+      </c>
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
-      </c>
-      <c r="W57" s="3">
-        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>3</v>
+      <c r="AA57" s="3">
+        <v>100</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>3</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4684,23 +4818,23 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>15000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4716,8 +4850,8 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4758,52 +4892,55 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>600</v>
       </c>
       <c r="R59" s="3">
         <v>600</v>
@@ -4812,29 +4949,29 @@
         <v>600</v>
       </c>
       <c r="T59" s="3">
+        <v>600</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4847,83 +4984,86 @@
       <c r="AE59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>17300</v>
       </c>
       <c r="K60" s="3">
         <v>17300</v>
       </c>
       <c r="L60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1200</v>
       </c>
       <c r="R60" s="3">
         <v>1200</v>
       </c>
       <c r="S60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4987,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>14900</v>
@@ -4996,7 +5139,7 @@
         <v>14900</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5034,13 +5180,13 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -5052,7 +5198,7 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -5064,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -5073,35 +5219,35 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>500</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z62" s="3">
         <v>24500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>23500</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,8 +5536,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5395,69 +5553,69 @@
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3">
         <v>17800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>15200</v>
       </c>
       <c r="R66" s="3">
         <v>15200</v>
       </c>
       <c r="S66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="T66" s="3">
         <v>31200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>25300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>10200</v>
       </c>
       <c r="W66" s="3">
         <v>10200</v>
       </c>
       <c r="X66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Y66" s="3">
         <v>9600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>34700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>33200</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,77 +6030,80 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-167300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-168600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-167100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-163900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-165500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-160700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-155100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-170100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-200</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5948,8 +6122,11 @@
       <c r="AE72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,83 +6398,86 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E76" s="3">
         <v>98500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>100100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>103400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>98100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>102900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>98700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>122300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>126800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>120800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>115600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>116800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>122100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>124100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>125200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>111000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>118000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>118800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>106400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>106700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>105400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>42900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>43400</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6304,8 +6490,11 @@
       <c r="AE76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
-      <c r="AE80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-112000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-1000</v>
       </c>
       <c r="U81" s="3">
         <v>-1000</v>
       </c>
       <c r="V81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-500</v>
       </c>
       <c r="Y81" s="3">
         <v>-500</v>
       </c>
       <c r="Z81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-9300</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-100</v>
       </c>
       <c r="AB81" s="3">
         <v>-100</v>
       </c>
       <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>100</v>
       </c>
-      <c r="AE81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6624,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -6639,16 +6838,16 @@
         <v>400</v>
       </c>
       <c r="L83" s="3">
+        <v>400</v>
+      </c>
+      <c r="M83" s="3">
         <v>1100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
       </c>
       <c r="O83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>500</v>
@@ -6663,7 +6862,7 @@
         <v>500</v>
       </c>
       <c r="T83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U83" s="3">
         <v>400</v>
@@ -6690,16 +6889,19 @@
         <v>400</v>
       </c>
       <c r="AC83" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD83" s="3">
         <v>800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>400</v>
       </c>
-      <c r="AE83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-700</v>
       </c>
       <c r="W89" s="3">
         <v>-700</v>
       </c>
       <c r="X89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-200</v>
       </c>
-      <c r="AE89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7274,11 +7495,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -7295,67 +7516,70 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-200</v>
       </c>
       <c r="AA91" s="3">
         <v>-200</v>
       </c>
       <c r="AB91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-700</v>
       </c>
-      <c r="AE91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7541,88 +7771,91 @@
         <v>7400</v>
       </c>
       <c r="E94" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>13900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-26900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>4200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-9400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-8700</v>
       </c>
-      <c r="AE94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8019,35 +8265,35 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>97900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>15800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -8055,11 +8301,11 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -8067,70 +8313,73 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>30700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>900</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>2500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>19300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>18400</v>
       </c>
-      <c r="AE100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -8150,23 +8399,23 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
@@ -8185,96 +8434,102 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-      <c r="AE101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E102" s="3">
         <v>5800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-41100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>64500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>9500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>9600</v>
       </c>
-      <c r="AE102" s="3" t="s">
+      <c r="AF102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
